--- a/data/HC_SWRS1_HMNBandingData_2021_GS.xlsx
+++ b/data/HC_SWRS1_HMNBandingData_2021_GS.xlsx
@@ -3998,8 +3998,8 @@
   <dimension ref="A1:AS1056"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
+      <pane ySplit="1" topLeftCell="A507" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E431" sqref="E431:L433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>

--- a/data/HC_SWRS1_HMNBandingData_2021_GS.xlsx
+++ b/data/HC_SWRS1_HMNBandingData_2021_GS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabym\Documents\R\HummingBird\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521A3D0B-A9FE-45E2-9369-C49C713513A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20376" windowHeight="8484"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20376" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3579,11 +3585,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3753,7 +3759,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3785,9 +3791,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3819,6 +3843,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3994,15 +4036,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB6" sqref="AB6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -4032,7 +4074,7 @@
     <col min="46" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" ht="83.4">
+    <row r="1" spans="1:45" s="1" customFormat="1" ht="83.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4169,7 +4211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1144</v>
       </c>
@@ -4244,7 +4286,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1144</v>
       </c>
@@ -4324,7 +4366,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1144</v>
       </c>
@@ -4405,7 +4447,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>1144</v>
       </c>
@@ -4498,7 +4540,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1144</v>
       </c>
@@ -4591,7 +4633,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1144</v>
       </c>
@@ -4681,7 +4723,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>1144</v>
       </c>
@@ -4771,7 +4813,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>1144</v>
       </c>
@@ -4861,7 +4903,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>1144</v>
       </c>
@@ -4938,7 +4980,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1144</v>
       </c>
@@ -5019,7 +5061,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>1144</v>
       </c>
@@ -5113,7 +5155,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>1144</v>
       </c>
@@ -5212,7 +5254,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>1144</v>
       </c>
@@ -5296,7 +5338,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>1144</v>
       </c>
@@ -5391,7 +5433,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>1144</v>
       </c>
@@ -5472,7 +5514,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>1145</v>
       </c>
@@ -5567,7 +5609,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="18" spans="1:45">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>1144</v>
       </c>
@@ -5645,7 +5687,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="19" spans="1:45">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>1144</v>
       </c>
@@ -5726,7 +5768,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="20" spans="1:45">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>1144</v>
       </c>
@@ -5807,7 +5849,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="21" spans="1:45">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>1144</v>
       </c>
@@ -5882,7 +5924,7 @@
       <c r="AQ21" s="3"/>
       <c r="AR21" s="3"/>
     </row>
-    <row r="22" spans="1:45">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>1144</v>
       </c>
@@ -5965,7 +6007,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="23" spans="1:45">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>1144</v>
       </c>
@@ -6045,7 +6087,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:45">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>1144</v>
       </c>
@@ -6123,7 +6165,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="25" spans="1:45">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>1144</v>
       </c>
@@ -6201,7 +6243,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="26" spans="1:45">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>1144</v>
       </c>
@@ -6290,7 +6332,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="27" spans="1:45">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>1144</v>
       </c>
@@ -6379,7 +6421,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="28" spans="1:45">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>1144</v>
       </c>
@@ -6469,7 +6511,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:45">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>1144</v>
       </c>
@@ -6550,7 +6592,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="30" spans="1:45">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>1144</v>
       </c>
@@ -6646,7 +6688,7 @@
       </c>
       <c r="AS30" s="6"/>
     </row>
-    <row r="31" spans="1:45">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>1144</v>
       </c>
@@ -6743,7 +6785,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:45">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>1145</v>
       </c>
@@ -6820,7 +6862,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="33" spans="1:45">
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>1144</v>
       </c>
@@ -6912,7 +6954,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:45">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>1144</v>
       </c>
@@ -7000,7 +7042,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="35" spans="1:45">
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>1144</v>
       </c>
@@ -7093,7 +7135,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="36" spans="1:45">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>1144</v>
       </c>
@@ -7192,7 +7234,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="37" spans="1:45">
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>1144</v>
       </c>
@@ -7275,7 +7317,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="38" spans="1:45">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>1144</v>
       </c>
@@ -7372,7 +7414,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="39" spans="1:45">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>1145</v>
       </c>
@@ -7449,7 +7491,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="40" spans="1:45">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>1144</v>
       </c>
@@ -7537,7 +7579,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="41" spans="1:45">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>1144</v>
       </c>
@@ -7618,7 +7660,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:45">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>1144</v>
       </c>
@@ -7696,7 +7738,7 @@
       <c r="AQ42" s="3"/>
       <c r="AR42" s="3"/>
     </row>
-    <row r="43" spans="1:45">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>1144</v>
       </c>
@@ -7793,7 +7835,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:45">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>1144</v>
       </c>
@@ -7873,7 +7915,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="45" spans="1:45">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>1145</v>
       </c>
@@ -7950,7 +7992,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="46" spans="1:45">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>1145</v>
       </c>
@@ -8036,7 +8078,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="47" spans="1:45">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>1144</v>
       </c>
@@ -8125,7 +8167,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="48" spans="1:45">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>1144</v>
       </c>
@@ -8223,7 +8265,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="49" spans="1:45">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>1144</v>
       </c>
@@ -8304,7 +8346,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="50" spans="1:45">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>1144</v>
       </c>
@@ -8385,7 +8427,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="51" spans="1:45">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>1144</v>
       </c>
@@ -8482,7 +8524,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="52" spans="1:45">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>1144</v>
       </c>
@@ -8574,7 +8616,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:45">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>1146</v>
       </c>
@@ -8654,7 +8696,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="54" spans="1:45">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>1144</v>
       </c>
@@ -8730,7 +8772,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="55" spans="1:45">
+    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>1144</v>
       </c>
@@ -8807,7 +8849,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="56" spans="1:45">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>1145</v>
       </c>
@@ -8884,7 +8926,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="57" spans="1:45">
+    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>1145</v>
       </c>
@@ -8967,7 +9009,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="58" spans="1:45">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>1144</v>
       </c>
@@ -9047,7 +9089,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="59" spans="1:45">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>1144</v>
       </c>
@@ -9127,7 +9169,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="60" spans="1:45">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>1144</v>
       </c>
@@ -9208,7 +9250,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="61" spans="1:45">
+    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>1144</v>
       </c>
@@ -9300,7 +9342,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="62" spans="1:45">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>1144</v>
       </c>
@@ -9390,7 +9432,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:45">
+    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>1145</v>
       </c>
@@ -9476,7 +9518,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="64" spans="1:45">
+    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>1144</v>
       </c>
@@ -9562,7 +9604,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:45">
+    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>1144</v>
       </c>
@@ -9643,7 +9685,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="66" spans="1:45">
+    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>1144</v>
       </c>
@@ -9738,7 +9780,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="67" spans="1:45">
+    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>1144</v>
       </c>
@@ -9819,7 +9861,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="68" spans="1:45">
+    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>1144</v>
       </c>
@@ -9905,7 +9947,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:45">
+    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>1144</v>
       </c>
@@ -9997,7 +10039,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="70" spans="1:45" s="6" customFormat="1">
+    <row r="70" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>1145</v>
       </c>
@@ -10096,7 +10138,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="71" spans="1:45" s="6" customFormat="1">
+    <row r="71" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>1144</v>
       </c>
@@ -10193,7 +10235,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="72" spans="1:45" s="6" customFormat="1">
+    <row r="72" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>1145</v>
       </c>
@@ -10294,7 +10336,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="73" spans="1:45" s="6" customFormat="1">
+    <row r="73" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>1144</v>
       </c>
@@ -10385,7 +10427,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="74" spans="1:45" s="6" customFormat="1">
+    <row r="74" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>1144</v>
       </c>
@@ -10478,7 +10520,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="75" spans="1:45" s="6" customFormat="1">
+    <row r="75" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>1144</v>
       </c>
@@ -10583,7 +10625,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="76" spans="1:45" s="6" customFormat="1">
+    <row r="76" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>1144</v>
       </c>
@@ -10628,7 +10670,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:45" s="6" customFormat="1">
+    <row r="77" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>1144</v>
       </c>
@@ -10725,7 +10767,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="78" spans="1:45" s="6" customFormat="1">
+    <row r="78" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>1145</v>
       </c>
@@ -10820,7 +10862,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:45" s="6" customFormat="1">
+    <row r="79" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>1144</v>
       </c>
@@ -10909,7 +10951,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="80" spans="1:45" s="6" customFormat="1">
+    <row r="80" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>1144</v>
       </c>
@@ -11006,7 +11048,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="81" spans="1:45" s="6" customFormat="1">
+    <row r="81" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>1144</v>
       </c>
@@ -11103,7 +11145,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="82" spans="1:45" s="6" customFormat="1">
+    <row r="82" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>1146</v>
       </c>
@@ -11202,7 +11244,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="83" spans="1:45" s="6" customFormat="1">
+    <row r="83" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>1144</v>
       </c>
@@ -11297,7 +11339,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="84" spans="1:45" s="6" customFormat="1">
+    <row r="84" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>1144</v>
       </c>
@@ -11402,7 +11444,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="85" spans="1:45" s="6" customFormat="1">
+    <row r="85" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>1146</v>
       </c>
@@ -11497,7 +11539,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="86" spans="1:45" s="6" customFormat="1">
+    <row r="86" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>1144</v>
       </c>
@@ -11594,7 +11636,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="87" spans="1:45" s="6" customFormat="1">
+    <row r="87" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>1144</v>
       </c>
@@ -11693,7 +11735,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="88" spans="1:45" s="6" customFormat="1">
+    <row r="88" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>1144</v>
       </c>
@@ -11792,7 +11834,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="89" spans="1:45" s="6" customFormat="1">
+    <row r="89" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>1144</v>
       </c>
@@ -11869,7 +11911,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="90" spans="1:45" s="6" customFormat="1">
+    <row r="90" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>1144</v>
       </c>
@@ -11966,7 +12008,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="91" spans="1:45" s="6" customFormat="1">
+    <row r="91" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>1144</v>
       </c>
@@ -12043,7 +12085,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="92" spans="1:45" s="6" customFormat="1">
+    <row r="92" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>1144</v>
       </c>
@@ -12140,7 +12182,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="93" spans="1:45" s="6" customFormat="1">
+    <row r="93" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>1144</v>
       </c>
@@ -12237,7 +12279,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="94" spans="1:45" s="6" customFormat="1">
+    <row r="94" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>1144</v>
       </c>
@@ -12334,7 +12376,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="95" spans="1:45" s="6" customFormat="1">
+    <row r="95" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>1144</v>
       </c>
@@ -12431,7 +12473,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="96" spans="1:45" s="6" customFormat="1">
+    <row r="96" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>1144</v>
       </c>
@@ -12519,7 +12561,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="97" spans="1:45" s="6" customFormat="1">
+    <row r="97" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>1144</v>
       </c>
@@ -12596,7 +12638,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="98" spans="1:45" s="6" customFormat="1">
+    <row r="98" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>1144</v>
       </c>
@@ -12693,7 +12735,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="99" spans="1:45" s="6" customFormat="1">
+    <row r="99" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>1144</v>
       </c>
@@ -12790,7 +12832,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="100" spans="1:45" s="6" customFormat="1">
+    <row r="100" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>1144</v>
       </c>
@@ -12887,7 +12929,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="101" spans="1:45" s="6" customFormat="1">
+    <row r="101" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>1144</v>
       </c>
@@ -12981,7 +13023,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="102" spans="1:45" s="6" customFormat="1">
+    <row r="102" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>1144</v>
       </c>
@@ -13064,7 +13106,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="103" spans="1:45" s="6" customFormat="1">
+    <row r="103" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>1144</v>
       </c>
@@ -13157,7 +13199,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="104" spans="1:45" s="6" customFormat="1">
+    <row r="104" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>1144</v>
       </c>
@@ -13254,7 +13296,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="105" spans="1:45" s="6" customFormat="1">
+    <row r="105" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>1144</v>
       </c>
@@ -13351,7 +13393,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="106" spans="1:45" s="6" customFormat="1">
+    <row r="106" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>1144</v>
       </c>
@@ -13439,7 +13481,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="107" spans="1:45" s="6" customFormat="1">
+    <row r="107" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>1144</v>
       </c>
@@ -13536,7 +13578,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="108" spans="1:45" s="6" customFormat="1">
+    <row r="108" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>1144</v>
       </c>
@@ -13637,7 +13679,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="109" spans="1:45" s="6" customFormat="1">
+    <row r="109" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>1146</v>
       </c>
@@ -13736,7 +13778,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="110" spans="1:45" s="6" customFormat="1">
+    <row r="110" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>1145</v>
       </c>
@@ -13831,7 +13873,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="111" spans="1:45" s="6" customFormat="1">
+    <row r="111" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>1144</v>
       </c>
@@ -13926,7 +13968,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="112" spans="1:45" s="6" customFormat="1">
+    <row r="112" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>1144</v>
       </c>
@@ -14014,7 +14056,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="113" spans="1:45" s="6" customFormat="1">
+    <row r="113" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>1144</v>
       </c>
@@ -14088,7 +14130,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="114" spans="1:45" s="6" customFormat="1">
+    <row r="114" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>1145</v>
       </c>
@@ -14185,7 +14227,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="115" spans="1:45" s="6" customFormat="1">
+    <row r="115" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>1145</v>
       </c>
@@ -14264,7 +14306,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="116" spans="1:45" s="6" customFormat="1">
+    <row r="116" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>1144</v>
       </c>
@@ -14361,7 +14403,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="117" spans="1:45" s="6" customFormat="1">
+    <row r="117" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>1145</v>
       </c>
@@ -14458,7 +14500,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="118" spans="1:45" s="6" customFormat="1">
+    <row r="118" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>1144</v>
       </c>
@@ -14553,7 +14595,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="119" spans="1:45" s="6" customFormat="1">
+    <row r="119" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>1144</v>
       </c>
@@ -14652,7 +14694,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="120" spans="1:45" s="6" customFormat="1">
+    <row r="120" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>1144</v>
       </c>
@@ -14747,7 +14789,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="121" spans="1:45" s="6" customFormat="1">
+    <row r="121" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>1144</v>
       </c>
@@ -14842,7 +14884,7 @@
       <c r="AR121" s="3"/>
       <c r="AS121" s="3"/>
     </row>
-    <row r="122" spans="1:45" s="6" customFormat="1">
+    <row r="122" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>1144</v>
       </c>
@@ -14945,7 +14987,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="123" spans="1:45" s="6" customFormat="1">
+    <row r="123" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>1144</v>
       </c>
@@ -15037,7 +15079,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="124" spans="1:45" s="6" customFormat="1">
+    <row r="124" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>1144</v>
       </c>
@@ -15140,7 +15182,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="125" spans="1:45" s="6" customFormat="1">
+    <row r="125" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>1144</v>
       </c>
@@ -15243,7 +15285,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="126" spans="1:45" s="6" customFormat="1">
+    <row r="126" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>1144</v>
       </c>
@@ -15356,7 +15398,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="127" spans="1:45" s="6" customFormat="1">
+    <row r="127" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>1144</v>
       </c>
@@ -15455,7 +15497,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="128" spans="1:45" s="6" customFormat="1">
+    <row r="128" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>1144</v>
       </c>
@@ -15548,7 +15590,7 @@
       <c r="AR128" s="3"/>
       <c r="AS128" s="3"/>
     </row>
-    <row r="129" spans="1:45" s="6" customFormat="1">
+    <row r="129" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>1144</v>
       </c>
@@ -15647,7 +15689,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="130" spans="1:45" s="6" customFormat="1">
+    <row r="130" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>1144</v>
       </c>
@@ -15746,7 +15788,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="131" spans="1:45" s="6" customFormat="1">
+    <row r="131" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>1144</v>
       </c>
@@ -15843,7 +15885,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="132" spans="1:45" s="6" customFormat="1">
+    <row r="132" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>1145</v>
       </c>
@@ -15940,7 +15982,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="133" spans="1:45" s="6" customFormat="1">
+    <row r="133" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>1144</v>
       </c>
@@ -16035,7 +16077,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="134" spans="1:45" s="6" customFormat="1">
+    <row r="134" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>1144</v>
       </c>
@@ -16127,7 +16169,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="135" spans="1:45" s="6" customFormat="1">
+    <row r="135" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>1144</v>
       </c>
@@ -16224,7 +16266,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="136" spans="1:45" s="6" customFormat="1">
+    <row r="136" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>1144</v>
       </c>
@@ -16321,7 +16363,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="137" spans="1:45" s="6" customFormat="1">
+    <row r="137" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>1144</v>
       </c>
@@ -16418,7 +16460,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="138" spans="1:45" s="6" customFormat="1">
+    <row r="138" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>1144</v>
       </c>
@@ -16515,7 +16557,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="139" spans="1:45" s="6" customFormat="1">
+    <row r="139" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>1144</v>
       </c>
@@ -16612,7 +16654,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="140" spans="1:45" s="6" customFormat="1">
+    <row r="140" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>1144</v>
       </c>
@@ -16707,7 +16749,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="141" spans="1:45" s="6" customFormat="1">
+    <row r="141" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>1144</v>
       </c>
@@ -16808,7 +16850,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="142" spans="1:45" s="6" customFormat="1">
+    <row r="142" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>1144</v>
       </c>
@@ -16911,7 +16953,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="143" spans="1:45" s="6" customFormat="1">
+    <row r="143" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>1144</v>
       </c>
@@ -17002,7 +17044,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="144" spans="1:45" s="6" customFormat="1">
+    <row r="144" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>1144</v>
       </c>
@@ -17090,7 +17132,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="145" spans="1:45" s="6" customFormat="1">
+    <row r="145" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>1146</v>
       </c>
@@ -17187,7 +17229,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="146" spans="1:45" s="6" customFormat="1">
+    <row r="146" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>1144</v>
       </c>
@@ -17284,7 +17326,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="147" spans="1:45">
+    <row r="147" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>1144</v>
       </c>
@@ -17374,7 +17416,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="148" spans="1:45">
+    <row r="148" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>1144</v>
       </c>
@@ -17464,7 +17506,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="149" spans="1:45">
+    <row r="149" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>1144</v>
       </c>
@@ -17548,7 +17590,7 @@
       <c r="AQ149" s="3"/>
       <c r="AR149" s="3"/>
     </row>
-    <row r="150" spans="1:45">
+    <row r="150" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>1144</v>
       </c>
@@ -17626,7 +17668,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="151" spans="1:45">
+    <row r="151" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>1144</v>
       </c>
@@ -17703,7 +17745,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="152" spans="1:45">
+    <row r="152" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>1145</v>
       </c>
@@ -17783,7 +17825,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="153" spans="1:45">
+    <row r="153" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>1144</v>
       </c>
@@ -17880,7 +17922,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="154" spans="1:45">
+    <row r="154" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>1145</v>
       </c>
@@ -17960,7 +18002,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="155" spans="1:45">
+    <row r="155" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>1145</v>
       </c>
@@ -18040,7 +18082,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="156" spans="1:45">
+    <row r="156" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>1144</v>
       </c>
@@ -18123,7 +18165,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="157" spans="1:45">
+    <row r="157" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>1144</v>
       </c>
@@ -18209,7 +18251,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="158" spans="1:45">
+    <row r="158" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>1145</v>
       </c>
@@ -18295,7 +18337,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="159" spans="1:45">
+    <row r="159" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>1144</v>
       </c>
@@ -18373,7 +18415,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="160" spans="1:45">
+    <row r="160" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>1144</v>
       </c>
@@ -18454,7 +18496,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="161" spans="1:45">
+    <row r="161" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>1144</v>
       </c>
@@ -18535,7 +18577,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="162" spans="1:45">
+    <row r="162" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>1144</v>
       </c>
@@ -18616,7 +18658,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="163" spans="1:45">
+    <row r="163" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>1145</v>
       </c>
@@ -18693,7 +18735,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="164" spans="1:45">
+    <row r="164" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>1144</v>
       </c>
@@ -18771,7 +18813,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="165" spans="1:45">
+    <row r="165" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>1144</v>
       </c>
@@ -18848,7 +18890,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="166" spans="1:45">
+    <row r="166" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>1144</v>
       </c>
@@ -18934,7 +18976,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="167" spans="1:45">
+    <row r="167" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>1144</v>
       </c>
@@ -19030,7 +19072,7 @@
       </c>
       <c r="AS167" s="6"/>
     </row>
-    <row r="168" spans="1:45">
+    <row r="168" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>1144</v>
       </c>
@@ -19127,7 +19169,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="169" spans="1:45">
+    <row r="169" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>1144</v>
       </c>
@@ -19202,7 +19244,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="170" spans="1:45">
+    <row r="170" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>1144</v>
       </c>
@@ -19280,7 +19322,7 @@
       <c r="AQ170" s="3"/>
       <c r="AR170" s="3"/>
     </row>
-    <row r="171" spans="1:45">
+    <row r="171" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>1144</v>
       </c>
@@ -19360,7 +19402,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="172" spans="1:45">
+    <row r="172" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>1144</v>
       </c>
@@ -19441,7 +19483,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="173" spans="1:45">
+    <row r="173" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>1144</v>
       </c>
@@ -19527,7 +19569,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="174" spans="1:45">
+    <row r="174" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>1144</v>
       </c>
@@ -19613,7 +19655,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="175" spans="1:45">
+    <row r="175" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>1145</v>
       </c>
@@ -19699,7 +19741,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="176" spans="1:45">
+    <row r="176" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>1145</v>
       </c>
@@ -19782,7 +19824,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="177" spans="1:45">
+    <row r="177" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>1144</v>
       </c>
@@ -19881,7 +19923,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="178" spans="1:45">
+    <row r="178" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>1144</v>
       </c>
@@ -19956,7 +19998,7 @@
       <c r="AQ178" s="3"/>
       <c r="AR178" s="3"/>
     </row>
-    <row r="179" spans="1:45">
+    <row r="179" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>1144</v>
       </c>
@@ -20033,7 +20075,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="180" spans="1:45">
+    <row r="180" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>1144</v>
       </c>
@@ -20111,7 +20153,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="181" spans="1:45">
+    <row r="181" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>1144</v>
       </c>
@@ -20186,7 +20228,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="182" spans="1:45">
+    <row r="182" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>1144</v>
       </c>
@@ -20264,7 +20306,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="183" spans="1:45">
+    <row r="183" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>1145</v>
       </c>
@@ -20341,7 +20383,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="184" spans="1:45">
+    <row r="184" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>1144</v>
       </c>
@@ -20430,7 +20472,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="185" spans="1:45">
+    <row r="185" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>1144</v>
       </c>
@@ -20508,7 +20550,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="186" spans="1:45">
+    <row r="186" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>1144</v>
       </c>
@@ -20586,7 +20628,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="187" spans="1:45">
+    <row r="187" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>1144</v>
       </c>
@@ -20670,7 +20712,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="188" spans="1:45">
+    <row r="188" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>1144</v>
       </c>
@@ -20772,7 +20814,7 @@
       </c>
       <c r="AS188" s="6"/>
     </row>
-    <row r="189" spans="1:45">
+    <row r="189" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>1144</v>
       </c>
@@ -20860,7 +20902,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="190" spans="1:45">
+    <row r="190" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>1144</v>
       </c>
@@ -20969,7 +21011,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="191" spans="1:45">
+    <row r="191" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>1144</v>
       </c>
@@ -21072,7 +21114,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="192" spans="1:45">
+    <row r="192" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>1144</v>
       </c>
@@ -21181,7 +21223,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="193" spans="1:45">
+    <row r="193" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>1144</v>
       </c>
@@ -21280,7 +21322,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="194" spans="1:45">
+    <row r="194" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>1144</v>
       </c>
@@ -21361,7 +21403,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="195" spans="1:45">
+    <row r="195" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>1144</v>
       </c>
@@ -21460,7 +21502,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="196" spans="1:45">
+    <row r="196" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>1144</v>
       </c>
@@ -21537,7 +21579,7 @@
       <c r="AQ196" s="3"/>
       <c r="AR196" s="3"/>
     </row>
-    <row r="197" spans="1:45">
+    <row r="197" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>1144</v>
       </c>
@@ -21629,7 +21671,7 @@
         <v>0.4465277777777778</v>
       </c>
     </row>
-    <row r="198" spans="1:45">
+    <row r="198" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>1144</v>
       </c>
@@ -21704,7 +21746,7 @@
       <c r="AQ198" s="3"/>
       <c r="AR198" s="3"/>
     </row>
-    <row r="199" spans="1:45">
+    <row r="199" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>1145</v>
       </c>
@@ -21781,7 +21823,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="200" spans="1:45">
+    <row r="200" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>1144</v>
       </c>
@@ -21862,7 +21904,7 @@
       <c r="AQ200" s="3"/>
       <c r="AR200" s="3"/>
     </row>
-    <row r="201" spans="1:45">
+    <row r="201" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>1144</v>
       </c>
@@ -21943,7 +21985,7 @@
       <c r="AQ201" s="3"/>
       <c r="AR201" s="3"/>
     </row>
-    <row r="202" spans="1:45">
+    <row r="202" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>1144</v>
       </c>
@@ -22036,7 +22078,7 @@
       <c r="AQ202" s="3"/>
       <c r="AR202" s="3"/>
     </row>
-    <row r="203" spans="1:45">
+    <row r="203" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>1144</v>
       </c>
@@ -22124,7 +22166,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="204" spans="1:45">
+    <row r="204" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>1144</v>
       </c>
@@ -22205,7 +22247,7 @@
       <c r="AQ204" s="3"/>
       <c r="AR204" s="3"/>
     </row>
-    <row r="205" spans="1:45">
+    <row r="205" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>1144</v>
       </c>
@@ -22301,7 +22343,7 @@
       <c r="AQ205" s="3"/>
       <c r="AR205" s="3"/>
     </row>
-    <row r="206" spans="1:45">
+    <row r="206" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>1144</v>
       </c>
@@ -22382,7 +22424,7 @@
       <c r="AQ206" s="3"/>
       <c r="AR206" s="3"/>
     </row>
-    <row r="207" spans="1:45">
+    <row r="207" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>1144</v>
       </c>
@@ -22462,7 +22504,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="208" spans="1:45">
+    <row r="208" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>1144</v>
       </c>
@@ -22542,7 +22584,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="209" spans="1:45">
+    <row r="209" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>1144</v>
       </c>
@@ -22622,7 +22664,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="210" spans="1:45">
+    <row r="210" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>1144</v>
       </c>
@@ -22660,7 +22702,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="211" spans="1:45">
+    <row r="211" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>1144</v>
       </c>
@@ -22743,7 +22785,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="212" spans="1:45">
+    <row r="212" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>1144</v>
       </c>
@@ -22826,7 +22868,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="213" spans="1:45">
+    <row r="213" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>1144</v>
       </c>
@@ -22910,7 +22952,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="214" spans="1:45">
+    <row r="214" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>1144</v>
       </c>
@@ -22994,7 +23036,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="215" spans="1:45">
+    <row r="215" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>1144</v>
       </c>
@@ -23078,7 +23120,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="216" spans="1:45">
+    <row r="216" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>1144</v>
       </c>
@@ -23177,7 +23219,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="217" spans="1:45">
+    <row r="217" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>1144</v>
       </c>
@@ -23261,7 +23303,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="218" spans="1:45">
+    <row r="218" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>1144</v>
       </c>
@@ -23354,7 +23396,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="219" spans="1:45">
+    <row r="219" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>1145</v>
       </c>
@@ -23434,7 +23476,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="220" spans="1:45">
+    <row r="220" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>1144</v>
       </c>
@@ -23533,7 +23575,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="221" spans="1:45">
+    <row r="221" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>1144</v>
       </c>
@@ -23617,7 +23659,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="222" spans="1:45">
+    <row r="222" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>1144</v>
       </c>
@@ -23709,7 +23751,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="223" spans="1:45">
+    <row r="223" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>1144</v>
       </c>
@@ -23795,7 +23837,7 @@
       </c>
       <c r="AS223" s="6"/>
     </row>
-    <row r="224" spans="1:45">
+    <row r="224" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>1144</v>
       </c>
@@ -23883,7 +23925,7 @@
       </c>
       <c r="AS224" s="6"/>
     </row>
-    <row r="225" spans="1:45">
+    <row r="225" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>1144</v>
       </c>
@@ -23976,7 +24018,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="226" spans="1:45">
+    <row r="226" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>1144</v>
       </c>
@@ -24060,7 +24102,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="227" spans="1:45">
+    <row r="227" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>1144</v>
       </c>
@@ -24159,7 +24201,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="228" spans="1:45">
+    <row r="228" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>1144</v>
       </c>
@@ -24258,7 +24300,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="229" spans="1:45">
+    <row r="229" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>1144</v>
       </c>
@@ -24348,7 +24390,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="230" spans="1:45">
+    <row r="230" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
         <v>1144</v>
       </c>
@@ -24426,7 +24468,7 @@
       <c r="AQ230" s="3"/>
       <c r="AR230" s="3"/>
     </row>
-    <row r="231" spans="1:45">
+    <row r="231" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>1144</v>
       </c>
@@ -24516,7 +24558,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="232" spans="1:45">
+    <row r="232" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
         <v>1144</v>
       </c>
@@ -24606,7 +24648,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="233" spans="1:45">
+    <row r="233" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>1144</v>
       </c>
@@ -24706,7 +24748,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="234" spans="1:45">
+    <row r="234" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
         <v>1144</v>
       </c>
@@ -24802,7 +24844,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="235" spans="1:45">
+    <row r="235" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
         <v>1145</v>
       </c>
@@ -24892,7 +24934,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="236" spans="1:45">
+    <row r="236" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
         <v>1145</v>
       </c>
@@ -24988,7 +25030,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="237" spans="1:45">
+    <row r="237" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
         <v>1145</v>
       </c>
@@ -25078,7 +25120,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="238" spans="1:45">
+    <row r="238" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>1145</v>
       </c>
@@ -25161,7 +25203,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="239" spans="1:45">
+    <row r="239" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>1144</v>
       </c>
@@ -25245,7 +25287,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="240" spans="1:45">
+    <row r="240" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
         <v>1145</v>
       </c>
@@ -25348,7 +25390,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="241" spans="1:45">
+    <row r="241" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
         <v>1144</v>
       </c>
@@ -25423,7 +25465,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="242" spans="1:45">
+    <row r="242" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
         <v>1144</v>
       </c>
@@ -25504,7 +25546,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="243" spans="1:45">
+    <row r="243" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
         <v>1145</v>
       </c>
@@ -25609,7 +25651,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="244" spans="1:45">
+    <row r="244" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
         <v>1144</v>
       </c>
@@ -25714,7 +25756,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="245" spans="1:45">
+    <row r="245" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
         <v>1144</v>
       </c>
@@ -25813,7 +25855,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="246" spans="1:45">
+    <row r="246" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
         <v>1144</v>
       </c>
@@ -25891,7 +25933,7 @@
       <c r="AQ246" s="3"/>
       <c r="AR246" s="3"/>
     </row>
-    <row r="247" spans="1:45">
+    <row r="247" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>1145</v>
       </c>
@@ -25968,7 +26010,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="248" spans="1:45">
+    <row r="248" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
         <v>1144</v>
       </c>
@@ -26065,7 +26107,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="249" spans="1:45">
+    <row r="249" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
         <v>1144</v>
       </c>
@@ -26134,7 +26176,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="250" spans="1:45">
+    <row r="250" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
         <v>1144</v>
       </c>
@@ -26220,7 +26262,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="251" spans="1:45">
+    <row r="251" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
         <v>1144</v>
       </c>
@@ -26327,7 +26369,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="252" spans="1:45">
+    <row r="252" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
         <v>1144</v>
       </c>
@@ -26411,7 +26453,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="253" spans="1:45">
+    <row r="253" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>1144</v>
       </c>
@@ -26492,7 +26534,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="254" spans="1:45">
+    <row r="254" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
         <v>1144</v>
       </c>
@@ -26591,7 +26633,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="255" spans="1:45">
+    <row r="255" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
         <v>1144</v>
       </c>
@@ -26683,7 +26725,7 @@
         <v>0.41250000000000003</v>
       </c>
     </row>
-    <row r="256" spans="1:45">
+    <row r="256" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
         <v>1144</v>
       </c>
@@ -26763,7 +26805,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="257" spans="1:45">
+    <row r="257" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
         <v>1144</v>
       </c>
@@ -26866,7 +26908,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="258" spans="1:45">
+    <row r="258" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>1145</v>
       </c>
@@ -26943,7 +26985,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="259" spans="1:45">
+    <row r="259" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
         <v>1144</v>
       </c>
@@ -27050,7 +27092,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="260" spans="1:45">
+    <row r="260" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
         <v>1144</v>
       </c>
@@ -27143,7 +27185,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="261" spans="1:45">
+    <row r="261" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
         <v>1144</v>
       </c>
@@ -27221,7 +27263,7 @@
       <c r="AQ261" s="3"/>
       <c r="AR261" s="3"/>
     </row>
-    <row r="262" spans="1:45">
+    <row r="262" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
         <v>1144</v>
       </c>
@@ -27302,7 +27344,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="263" spans="1:45">
+    <row r="263" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
         <v>1144</v>
       </c>
@@ -27399,7 +27441,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="264" spans="1:45">
+    <row r="264" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
         <v>1144</v>
       </c>
@@ -27498,7 +27540,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="265" spans="1:45">
+    <row r="265" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
         <v>1144</v>
       </c>
@@ -27599,7 +27641,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="266" spans="1:45">
+    <row r="266" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
         <v>1144</v>
       </c>
@@ -27700,7 +27742,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="267" spans="1:45">
+    <row r="267" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
         <v>1144</v>
       </c>
@@ -27805,7 +27847,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="268" spans="1:45">
+    <row r="268" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
         <v>1144</v>
       </c>
@@ -27906,7 +27948,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="269" spans="1:45">
+    <row r="269" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
         <v>1144</v>
       </c>
@@ -27987,7 +28029,7 @@
       <c r="AQ269" s="3"/>
       <c r="AR269" s="3"/>
     </row>
-    <row r="270" spans="1:45">
+    <row r="270" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
         <v>1144</v>
       </c>
@@ -28086,7 +28128,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="271" spans="1:45">
+    <row r="271" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
         <v>1144</v>
       </c>
@@ -28167,7 +28209,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="272" spans="1:45">
+    <row r="272" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
         <v>1145</v>
       </c>
@@ -28268,7 +28310,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="273" spans="1:45">
+    <row r="273" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
         <v>1145</v>
       </c>
@@ -28367,7 +28409,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="274" spans="1:45">
+    <row r="274" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
         <v>1144</v>
       </c>
@@ -28448,7 +28490,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="275" spans="1:45">
+    <row r="275" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
         <v>1145</v>
       </c>
@@ -28547,7 +28589,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="276" spans="1:45">
+    <row r="276" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
         <v>1144</v>
       </c>
@@ -28639,7 +28681,7 @@
         <v>0.45347222222222222</v>
       </c>
     </row>
-    <row r="277" spans="1:45">
+    <row r="277" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
         <v>1144</v>
       </c>
@@ -28716,7 +28758,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="278" spans="1:45">
+    <row r="278" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
         <v>1144</v>
       </c>
@@ -28794,7 +28836,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="279" spans="1:45">
+    <row r="279" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>1144</v>
       </c>
@@ -28877,7 +28919,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="280" spans="1:45">
+    <row r="280" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>1144</v>
       </c>
@@ -28965,7 +29007,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="281" spans="1:45">
+    <row r="281" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>1144</v>
       </c>
@@ -29048,7 +29090,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="282" spans="1:45">
+    <row r="282" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
         <v>1144</v>
       </c>
@@ -29135,7 +29177,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="283" spans="1:45">
+    <row r="283" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
         <v>1144</v>
       </c>
@@ -29216,7 +29258,7 @@
       <c r="AQ283" s="3"/>
       <c r="AR283" s="3"/>
     </row>
-    <row r="284" spans="1:45">
+    <row r="284" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
         <v>1144</v>
       </c>
@@ -29309,7 +29351,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="285" spans="1:45">
+    <row r="285" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
         <v>1144</v>
       </c>
@@ -29390,7 +29432,7 @@
       <c r="AQ285" s="3"/>
       <c r="AR285" s="3"/>
     </row>
-    <row r="286" spans="1:45">
+    <row r="286" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>1144</v>
       </c>
@@ -29479,7 +29521,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="287" spans="1:45">
+    <row r="287" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
         <v>1144</v>
       </c>
@@ -29568,7 +29610,7 @@
       <c r="AQ287" s="3"/>
       <c r="AR287" s="3"/>
     </row>
-    <row r="288" spans="1:45">
+    <row r="288" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
         <v>1144</v>
       </c>
@@ -29658,7 +29700,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="289" spans="1:45">
+    <row r="289" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
         <v>1144</v>
       </c>
@@ -29744,7 +29786,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="290" spans="1:45">
+    <row r="290" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="s">
         <v>1144</v>
       </c>
@@ -29822,7 +29864,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="291" spans="1:45">
+    <row r="291" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>1146</v>
       </c>
@@ -29899,7 +29941,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="292" spans="1:45">
+    <row r="292" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>1144</v>
       </c>
@@ -29976,7 +30018,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="293" spans="1:45">
+    <row r="293" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
         <v>1144</v>
       </c>
@@ -30073,7 +30115,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="294" spans="1:45">
+    <row r="294" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
         <v>1144</v>
       </c>
@@ -30154,7 +30196,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="295" spans="1:45">
+    <row r="295" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>1145</v>
       </c>
@@ -30237,7 +30279,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="296" spans="1:45">
+    <row r="296" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>1146</v>
       </c>
@@ -30314,7 +30356,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="297" spans="1:45">
+    <row r="297" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>1144</v>
       </c>
@@ -30391,7 +30433,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="298" spans="1:45">
+    <row r="298" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
         <v>1144</v>
       </c>
@@ -30447,7 +30489,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="299" spans="1:45">
+    <row r="299" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
         <v>1144</v>
       </c>
@@ -30528,7 +30570,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="300" spans="1:45">
+    <row r="300" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
         <v>1145</v>
       </c>
@@ -30625,7 +30667,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="301" spans="1:45">
+    <row r="301" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
         <v>1144</v>
       </c>
@@ -30722,7 +30764,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="302" spans="1:45">
+    <row r="302" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>1145</v>
       </c>
@@ -30799,7 +30841,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="303" spans="1:45">
+    <row r="303" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
         <v>1144</v>
       </c>
@@ -30885,7 +30927,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="304" spans="1:45">
+    <row r="304" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
         <v>1144</v>
       </c>
@@ -30980,7 +31022,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="305" spans="1:45">
+    <row r="305" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
         <v>1144</v>
       </c>
@@ -31077,7 +31119,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="306" spans="1:45">
+    <row r="306" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
         <v>1144</v>
       </c>
@@ -31158,7 +31200,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="307" spans="1:45">
+    <row r="307" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
         <v>1144</v>
       </c>
@@ -31242,7 +31284,7 @@
       </c>
       <c r="AS307" s="6"/>
     </row>
-    <row r="308" spans="1:45">
+    <row r="308" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
         <v>1144</v>
       </c>
@@ -31323,7 +31365,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="309" spans="1:45">
+    <row r="309" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>1144</v>
       </c>
@@ -31415,7 +31457,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="310" spans="1:45">
+    <row r="310" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
         <v>1144</v>
       </c>
@@ -31493,7 +31535,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="311" spans="1:45">
+    <row r="311" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>1145</v>
       </c>
@@ -31552,7 +31594,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="312" spans="1:45">
+    <row r="312" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>1145</v>
       </c>
@@ -31638,7 +31680,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="313" spans="1:45">
+    <row r="313" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>1144</v>
       </c>
@@ -31734,7 +31776,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="314" spans="1:45">
+    <row r="314" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A314" s="6" t="s">
         <v>1144</v>
       </c>
@@ -31829,7 +31871,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="315" spans="1:45">
+    <row r="315" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
         <v>1144</v>
       </c>
@@ -31907,7 +31949,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="316" spans="1:45">
+    <row r="316" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>1145</v>
       </c>
@@ -31987,7 +32029,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="317" spans="1:45">
+    <row r="317" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
         <v>1144</v>
       </c>
@@ -32081,7 +32123,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="318" spans="1:45">
+    <row r="318" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>1146</v>
       </c>
@@ -32161,7 +32203,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="319" spans="1:45">
+    <row r="319" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
         <v>1144</v>
       </c>
@@ -32247,7 +32289,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="320" spans="1:45">
+    <row r="320" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
         <v>1144</v>
       </c>
@@ -32300,7 +32342,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="321" spans="1:45">
+    <row r="321" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
         <v>1144</v>
       </c>
@@ -32397,7 +32439,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="322" spans="1:45">
+    <row r="322" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>1145</v>
       </c>
@@ -32474,7 +32516,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="323" spans="1:45">
+    <row r="323" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
         <v>1144</v>
       </c>
@@ -32571,7 +32613,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="324" spans="1:45">
+    <row r="324" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
         <v>1144</v>
       </c>
@@ -32631,7 +32673,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="325" spans="1:45">
+    <row r="325" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
         <v>1144</v>
       </c>
@@ -32712,7 +32754,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="326" spans="1:45">
+    <row r="326" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
         <v>1144</v>
       </c>
@@ -32790,7 +32832,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="327" spans="1:45">
+    <row r="327" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
         <v>1144</v>
       </c>
@@ -32871,7 +32913,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="328" spans="1:45">
+    <row r="328" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>1144</v>
       </c>
@@ -32951,7 +32993,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="329" spans="1:45">
+    <row r="329" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>1146</v>
       </c>
@@ -33034,7 +33076,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="330" spans="1:45">
+    <row r="330" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>1146</v>
       </c>
@@ -33117,7 +33159,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="331" spans="1:45">
+    <row r="331" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>1146</v>
       </c>
@@ -33200,7 +33242,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="332" spans="1:45">
+    <row r="332" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>1146</v>
       </c>
@@ -33280,7 +33322,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="333" spans="1:45">
+    <row r="333" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>1146</v>
       </c>
@@ -33360,7 +33402,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="334" spans="1:45">
+    <row r="334" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>1146</v>
       </c>
@@ -33443,7 +33485,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="335" spans="1:45">
+    <row r="335" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>1146</v>
       </c>
@@ -33523,7 +33565,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="336" spans="1:45">
+    <row r="336" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>1146</v>
       </c>
@@ -33603,7 +33645,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="337" spans="1:45">
+    <row r="337" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>1144</v>
       </c>
@@ -33686,7 +33728,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="338" spans="1:45">
+    <row r="338" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>1144</v>
       </c>
@@ -33769,7 +33811,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="339" spans="1:45">
+    <row r="339" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>1144</v>
       </c>
@@ -33852,7 +33894,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="340" spans="1:45">
+    <row r="340" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>1144</v>
       </c>
@@ -33935,7 +33977,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="341" spans="1:45">
+    <row r="341" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>1144</v>
       </c>
@@ -34024,7 +34066,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="342" spans="1:45">
+    <row r="342" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>1144</v>
       </c>
@@ -34104,7 +34146,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="343" spans="1:45">
+    <row r="343" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>1144</v>
       </c>
@@ -34184,7 +34226,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="344" spans="1:45">
+    <row r="344" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>1146</v>
       </c>
@@ -34270,7 +34312,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="345" spans="1:45">
+    <row r="345" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>1146</v>
       </c>
@@ -34353,7 +34395,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="346" spans="1:45">
+    <row r="346" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>1146</v>
       </c>
@@ -34436,7 +34478,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="347" spans="1:45">
+    <row r="347" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>1146</v>
       </c>
@@ -34516,7 +34558,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="348" spans="1:45">
+    <row r="348" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>1146</v>
       </c>
@@ -34599,7 +34641,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="349" spans="1:45">
+    <row r="349" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>1144</v>
       </c>
@@ -34679,7 +34721,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="350" spans="1:45">
+    <row r="350" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>1145</v>
       </c>
@@ -34759,7 +34801,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="351" spans="1:45">
+    <row r="351" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>1144</v>
       </c>
@@ -34848,7 +34890,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="352" spans="1:45">
+    <row r="352" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>1145</v>
       </c>
@@ -34931,7 +34973,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="353" spans="1:45">
+    <row r="353" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>1145</v>
       </c>
@@ -35014,7 +35056,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="354" spans="1:45">
+    <row r="354" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A354" s="6" t="s">
         <v>1144</v>
       </c>
@@ -35095,7 +35137,7 @@
       <c r="AQ354" s="3"/>
       <c r="AR354" s="3"/>
     </row>
-    <row r="355" spans="1:45">
+    <row r="355" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A355" s="6" t="s">
         <v>1144</v>
       </c>
@@ -35181,7 +35223,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="356" spans="1:45">
+    <row r="356" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A356" s="6" t="s">
         <v>1144</v>
       </c>
@@ -35278,7 +35320,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="357" spans="1:45">
+    <row r="357" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>1145</v>
       </c>
@@ -35355,7 +35397,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="358" spans="1:45">
+    <row r="358" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A358" s="6" t="s">
         <v>1144</v>
       </c>
@@ -35452,7 +35494,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="359" spans="1:45">
+    <row r="359" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A359" s="6" t="s">
         <v>1144</v>
       </c>
@@ -35532,7 +35574,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="360" spans="1:45">
+    <row r="360" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A360" s="6" t="s">
         <v>1144</v>
       </c>
@@ -35613,7 +35655,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="361" spans="1:45">
+    <row r="361" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>1145</v>
       </c>
@@ -35705,7 +35747,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="362" spans="1:45">
+    <row r="362" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>1144</v>
       </c>
@@ -35783,7 +35825,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="363" spans="1:45">
+    <row r="363" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A363" s="6" t="s">
         <v>1144</v>
       </c>
@@ -35880,7 +35922,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="364" spans="1:45">
+    <row r="364" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A364" s="6" t="s">
         <v>1144</v>
       </c>
@@ -35934,7 +35976,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="365" spans="1:45">
+    <row r="365" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A365" s="6" t="s">
         <v>1144</v>
       </c>
@@ -36015,7 +36057,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="366" spans="1:45">
+    <row r="366" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>1145</v>
       </c>
@@ -36068,7 +36110,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="367" spans="1:45">
+    <row r="367" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A367" s="6" t="s">
         <v>1144</v>
       </c>
@@ -36133,7 +36175,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="368" spans="1:45">
+    <row r="368" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A368" s="6" t="s">
         <v>1144</v>
       </c>
@@ -36211,7 +36253,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="369" spans="1:45">
+    <row r="369" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A369" s="6" t="s">
         <v>1144</v>
       </c>
@@ -36288,7 +36330,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="370" spans="1:45">
+    <row r="370" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
         <v>1145</v>
       </c>
@@ -36362,7 +36404,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="371" spans="1:45">
+    <row r="371" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A371" s="6" t="s">
         <v>1144</v>
       </c>
@@ -36437,7 +36479,7 @@
       <c r="AQ371" s="3"/>
       <c r="AR371" s="3"/>
     </row>
-    <row r="372" spans="1:45">
+    <row r="372" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A372" s="6" t="s">
         <v>1144</v>
       </c>
@@ -36515,7 +36557,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="373" spans="1:45">
+    <row r="373" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
         <v>1144</v>
       </c>
@@ -36593,7 +36635,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="374" spans="1:45">
+    <row r="374" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A374" s="6" t="s">
         <v>1144</v>
       </c>
@@ -36683,7 +36725,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="375" spans="1:45">
+    <row r="375" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A375" s="6" t="s">
         <v>1144</v>
       </c>
@@ -36758,7 +36800,7 @@
       <c r="AQ375" s="3"/>
       <c r="AR375" s="3"/>
     </row>
-    <row r="376" spans="1:45">
+    <row r="376" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
         <v>1145</v>
       </c>
@@ -36832,7 +36874,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="377" spans="1:45">
+    <row r="377" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
         <v>1144</v>
       </c>
@@ -36913,7 +36955,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="378" spans="1:45">
+    <row r="378" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A378" s="6" t="s">
         <v>1145</v>
       </c>
@@ -37008,7 +37050,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="379" spans="1:45">
+    <row r="379" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A379" s="6" t="s">
         <v>1144</v>
       </c>
@@ -37083,7 +37125,7 @@
       <c r="AQ379" s="3"/>
       <c r="AR379" s="3"/>
     </row>
-    <row r="380" spans="1:45">
+    <row r="380" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A380" s="6" t="s">
         <v>1144</v>
       </c>
@@ -37180,7 +37222,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="381" spans="1:45">
+    <row r="381" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
         <v>1144</v>
       </c>
@@ -37266,7 +37308,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="382" spans="1:45">
+    <row r="382" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A382" s="6" t="s">
         <v>1144</v>
       </c>
@@ -37347,7 +37389,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="383" spans="1:45">
+    <row r="383" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A383" s="6" t="s">
         <v>1144</v>
       </c>
@@ -37450,7 +37492,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="384" spans="1:45">
+    <row r="384" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A384" s="6" t="s">
         <v>1144</v>
       </c>
@@ -37530,7 +37572,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="385" spans="1:45">
+    <row r="385" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A385" s="6" t="s">
         <v>1144</v>
       </c>
@@ -37608,7 +37650,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="386" spans="1:45">
+    <row r="386" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A386" s="6" t="s">
         <v>1144</v>
       </c>
@@ -37691,7 +37733,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="387" spans="1:45">
+    <row r="387" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
         <v>1145</v>
       </c>
@@ -37768,7 +37810,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="388" spans="1:45">
+    <row r="388" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A388" s="6" t="s">
         <v>1144</v>
       </c>
@@ -37846,7 +37888,7 @@
       <c r="AQ388" s="3"/>
       <c r="AR388" s="3"/>
     </row>
-    <row r="389" spans="1:45">
+    <row r="389" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A389" s="6" t="s">
         <v>1144</v>
       </c>
@@ -37943,7 +37985,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="390" spans="1:45">
+    <row r="390" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A390" s="6" t="s">
         <v>1144</v>
       </c>
@@ -38024,7 +38066,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="391" spans="1:45">
+    <row r="391" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
         <v>1145</v>
       </c>
@@ -38101,7 +38143,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="392" spans="1:45">
+    <row r="392" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A392" s="6" t="s">
         <v>1144</v>
       </c>
@@ -38186,7 +38228,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="393" spans="1:45">
+    <row r="393" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A393" s="6" t="s">
         <v>1144</v>
       </c>
@@ -38258,7 +38300,7 @@
       <c r="AQ393" s="3"/>
       <c r="AR393" s="3"/>
     </row>
-    <row r="394" spans="1:45">
+    <row r="394" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>1145</v>
       </c>
@@ -38335,7 +38377,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="395" spans="1:45">
+    <row r="395" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A395" s="6" t="s">
         <v>1144</v>
       </c>
@@ -38416,7 +38458,7 @@
       </c>
       <c r="AR395" s="3"/>
     </row>
-    <row r="396" spans="1:45">
+    <row r="396" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A396" s="6" t="s">
         <v>1144</v>
       </c>
@@ -38476,7 +38518,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="397" spans="1:45">
+    <row r="397" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A397" s="6" t="s">
         <v>1145</v>
       </c>
@@ -38577,7 +38619,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="398" spans="1:45">
+    <row r="398" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A398" s="6" t="s">
         <v>1144</v>
       </c>
@@ -38649,7 +38691,7 @@
       <c r="AQ398" s="3"/>
       <c r="AR398" s="3"/>
     </row>
-    <row r="399" spans="1:45">
+    <row r="399" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A399" s="6" t="s">
         <v>1144</v>
       </c>
@@ -38730,7 +38772,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="400" spans="1:45">
+    <row r="400" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A400" s="6" t="s">
         <v>1144</v>
       </c>
@@ -38802,7 +38844,7 @@
       <c r="AQ400" s="3"/>
       <c r="AR400" s="3"/>
     </row>
-    <row r="401" spans="1:45">
+    <row r="401" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A401" s="6" t="s">
         <v>1144</v>
       </c>
@@ -38883,7 +38925,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="402" spans="1:45">
+    <row r="402" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A402" s="6" t="s">
         <v>1144</v>
       </c>
@@ -38958,7 +39000,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="403" spans="1:45">
+    <row r="403" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A403" s="6" t="s">
         <v>1144</v>
       </c>
@@ -39039,7 +39081,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="404" spans="1:45">
+    <row r="404" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A404" s="6" t="s">
         <v>1144</v>
       </c>
@@ -39114,7 +39156,7 @@
       <c r="AQ404" s="3"/>
       <c r="AR404" s="3"/>
     </row>
-    <row r="405" spans="1:45">
+    <row r="405" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A405" s="6" t="s">
         <v>1144</v>
       </c>
@@ -39192,7 +39234,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="406" spans="1:45">
+    <row r="406" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A406" s="6" t="s">
         <v>1144</v>
       </c>
@@ -39295,7 +39337,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="407" spans="1:45">
+    <row r="407" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A407" s="6" t="s">
         <v>1144</v>
       </c>
@@ -39361,7 +39403,7 @@
       <c r="AQ407" s="3"/>
       <c r="AR407" s="3"/>
     </row>
-    <row r="408" spans="1:45">
+    <row r="408" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A408" s="6" t="s">
         <v>1144</v>
       </c>
@@ -39441,7 +39483,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="409" spans="1:45">
+    <row r="409" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A409" s="6" t="s">
         <v>1144</v>
       </c>
@@ -39522,7 +39564,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="410" spans="1:45">
+    <row r="410" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A410" s="6" t="s">
         <v>1144</v>
       </c>
@@ -39600,7 +39642,7 @@
       <c r="AQ410" s="3"/>
       <c r="AR410" s="3"/>
     </row>
-    <row r="411" spans="1:45">
+    <row r="411" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A411" s="6" t="s">
         <v>1144</v>
       </c>
@@ -39686,7 +39728,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="412" spans="1:45">
+    <row r="412" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A412" s="6" t="s">
         <v>1144</v>
       </c>
@@ -39764,7 +39806,7 @@
       <c r="AQ412" s="3"/>
       <c r="AR412" s="3"/>
     </row>
-    <row r="413" spans="1:45">
+    <row r="413" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A413" s="6" t="s">
         <v>1144</v>
       </c>
@@ -39845,7 +39887,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="414" spans="1:45">
+    <row r="414" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A414" s="6" t="s">
         <v>1144</v>
       </c>
@@ -39926,7 +39968,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="415" spans="1:45">
+    <row r="415" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A415" s="6" t="s">
         <v>1144</v>
       </c>
@@ -39998,7 +40040,7 @@
       <c r="AQ415" s="3"/>
       <c r="AR415" s="3"/>
     </row>
-    <row r="416" spans="1:45">
+    <row r="416" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A416" s="6" t="s">
         <v>1144</v>
       </c>
@@ -40070,7 +40112,7 @@
       <c r="AQ416" s="3"/>
       <c r="AR416" s="3"/>
     </row>
-    <row r="417" spans="1:45">
+    <row r="417" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A417" s="6" t="s">
         <v>1144</v>
       </c>
@@ -40158,7 +40200,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="418" spans="1:45">
+    <row r="418" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A418" s="6" t="s">
         <v>1144</v>
       </c>
@@ -40263,7 +40305,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="419" spans="1:45">
+    <row r="419" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A419" s="6" t="s">
         <v>1144</v>
       </c>
@@ -40351,7 +40393,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="420" spans="1:45">
+    <row r="420" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A420" s="6" t="s">
         <v>1144</v>
       </c>
@@ -40432,7 +40474,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="421" spans="1:45">
+    <row r="421" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
         <v>1145</v>
       </c>
@@ -40524,7 +40566,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="422" spans="1:45">
+    <row r="422" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A422" s="6" t="s">
         <v>1144</v>
       </c>
@@ -40601,7 +40643,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="423" spans="1:45">
+    <row r="423" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A423" s="6" t="s">
         <v>1144</v>
       </c>
@@ -40679,7 +40721,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="424" spans="1:45">
+    <row r="424" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
         <v>1144</v>
       </c>
@@ -40760,7 +40802,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="425" spans="1:45">
+    <row r="425" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A425" s="6" t="s">
         <v>1144</v>
       </c>
@@ -40832,7 +40874,7 @@
       <c r="AQ425" s="3"/>
       <c r="AR425" s="3"/>
     </row>
-    <row r="426" spans="1:45">
+    <row r="426" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A426" s="6" t="s">
         <v>1144</v>
       </c>
@@ -40912,7 +40954,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="427" spans="1:45">
+    <row r="427" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
         <v>1145</v>
       </c>
@@ -40986,7 +41028,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="428" spans="1:45">
+    <row r="428" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A428" s="6" t="s">
         <v>1144</v>
       </c>
@@ -41086,7 +41128,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="429" spans="1:45">
+    <row r="429" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A429" s="6" t="s">
         <v>1145</v>
       </c>
@@ -41185,7 +41227,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="430" spans="1:45">
+    <row r="430" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
         <v>1144</v>
       </c>
@@ -41269,7 +41311,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="431" spans="1:45">
+    <row r="431" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A431" s="6" t="s">
         <v>1144</v>
       </c>
@@ -41351,7 +41393,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="432" spans="1:45">
+    <row r="432" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
         <v>1144</v>
       </c>
@@ -41429,7 +41471,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="433" spans="1:45">
+    <row r="433" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
         <v>1144</v>
       </c>
@@ -41486,7 +41528,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="434" spans="1:45">
+    <row r="434" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A434" s="6" t="s">
         <v>1144</v>
       </c>
@@ -41567,7 +41609,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="435" spans="1:45">
+    <row r="435" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A435" s="6" t="s">
         <v>1144</v>
       </c>
@@ -41664,7 +41706,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="436" spans="1:45">
+    <row r="436" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A436" s="6" t="s">
         <v>1144</v>
       </c>
@@ -41745,7 +41787,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="437" spans="1:45">
+    <row r="437" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A437" s="6" t="s">
         <v>1144</v>
       </c>
@@ -41823,7 +41865,7 @@
       <c r="AQ437" s="3"/>
       <c r="AR437" s="3"/>
     </row>
-    <row r="438" spans="1:45">
+    <row r="438" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A438" s="6" t="s">
         <v>1144</v>
       </c>
@@ -41920,7 +41962,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="439" spans="1:45">
+    <row r="439" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A439" s="6" t="s">
         <v>1144</v>
       </c>
@@ -41998,7 +42040,7 @@
       <c r="AQ439" s="3"/>
       <c r="AR439" s="3"/>
     </row>
-    <row r="440" spans="1:45">
+    <row r="440" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A440" s="6" t="s">
         <v>1144</v>
       </c>
@@ -42078,7 +42120,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="441" spans="1:45">
+    <row r="441" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A441" s="6" t="s">
         <v>1144</v>
       </c>
@@ -42159,7 +42201,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="442" spans="1:45">
+    <row r="442" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
         <v>1144</v>
       </c>
@@ -42243,7 +42285,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="443" spans="1:45">
+    <row r="443" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A443" s="6" t="s">
         <v>1144</v>
       </c>
@@ -42338,7 +42380,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="444" spans="1:45">
+    <row r="444" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
         <v>1145</v>
       </c>
@@ -42412,7 +42454,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="445" spans="1:45">
+    <row r="445" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A445" s="6" t="s">
         <v>1144</v>
       </c>
@@ -42490,7 +42532,7 @@
       <c r="AQ445" s="3"/>
       <c r="AR445" s="3"/>
     </row>
-    <row r="446" spans="1:45">
+    <row r="446" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A446" s="6" t="s">
         <v>1145</v>
       </c>
@@ -42587,7 +42629,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="447" spans="1:45">
+    <row r="447" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
         <v>1144</v>
       </c>
@@ -42671,7 +42713,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="448" spans="1:45">
+    <row r="448" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A448" s="6" t="s">
         <v>1144</v>
       </c>
@@ -42750,7 +42792,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="449" spans="1:45">
+    <row r="449" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A449" s="6" t="s">
         <v>1144</v>
       </c>
@@ -42828,7 +42870,7 @@
       <c r="AQ449" s="3"/>
       <c r="AR449" s="3"/>
     </row>
-    <row r="450" spans="1:45">
+    <row r="450" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A450" s="6" t="s">
         <v>1144</v>
       </c>
@@ -42911,7 +42953,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="451" spans="1:45">
+    <row r="451" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A451" s="6" t="s">
         <v>1144</v>
       </c>
@@ -43003,7 +43045,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="452" spans="1:45">
+    <row r="452" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A452" s="6" t="s">
         <v>1144</v>
       </c>
@@ -43084,7 +43126,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="453" spans="1:45">
+    <row r="453" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A453" s="6" t="s">
         <v>1144</v>
       </c>
@@ -43172,7 +43214,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="454" spans="1:45">
+    <row r="454" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
         <v>1144</v>
       </c>
@@ -43250,7 +43292,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="455" spans="1:45">
+    <row r="455" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A455" s="6" t="s">
         <v>1144</v>
       </c>
@@ -43351,7 +43393,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="456" spans="1:45">
+    <row r="456" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A456" s="6" t="s">
         <v>1144</v>
       </c>
@@ -43446,7 +43488,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="457" spans="1:45">
+    <row r="457" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A457" s="6" t="s">
         <v>1144</v>
       </c>
@@ -43529,7 +43571,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="458" spans="1:45">
+    <row r="458" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A458" s="6" t="s">
         <v>1144</v>
       </c>
@@ -43604,7 +43646,7 @@
       <c r="AQ458" s="3"/>
       <c r="AR458" s="3"/>
     </row>
-    <row r="459" spans="1:45">
+    <row r="459" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A459" s="6" t="s">
         <v>1144</v>
       </c>
@@ -43681,7 +43723,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="460" spans="1:45">
+    <row r="460" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A460" s="6" t="s">
         <v>1144</v>
       </c>
@@ -43759,7 +43801,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="461" spans="1:45">
+    <row r="461" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A461" s="6" t="s">
         <v>1144</v>
       </c>
@@ -43837,7 +43879,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="462" spans="1:45">
+    <row r="462" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
         <v>1144</v>
       </c>
@@ -43915,7 +43957,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="463" spans="1:45">
+    <row r="463" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A463" s="6" t="s">
         <v>1144</v>
       </c>
@@ -43993,7 +44035,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="464" spans="1:45">
+    <row r="464" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
         <v>1144</v>
       </c>
@@ -44092,7 +44134,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="465" spans="1:45">
+    <row r="465" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A465" s="6" t="s">
         <v>1144</v>
       </c>
@@ -44186,7 +44228,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="466" spans="1:45">
+    <row r="466" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
         <v>1144</v>
       </c>
@@ -44285,7 +44327,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="467" spans="1:45">
+    <row r="467" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
         <v>1145</v>
       </c>
@@ -44374,7 +44416,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="468" spans="1:45">
+    <row r="468" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
         <v>1144</v>
       </c>
@@ -44473,7 +44515,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="469" spans="1:45">
+    <row r="469" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A469" s="6" t="s">
         <v>1144</v>
       </c>
@@ -44563,7 +44605,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="470" spans="1:45">
+    <row r="470" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
         <v>1145</v>
       </c>
@@ -44649,7 +44691,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="471" spans="1:45">
+    <row r="471" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
         <v>1145</v>
       </c>
@@ -44735,7 +44777,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="472" spans="1:45">
+    <row r="472" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A472" s="6" t="s">
         <v>1144</v>
       </c>
@@ -44827,7 +44869,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="473" spans="1:45">
+    <row r="473" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A473" s="6" t="s">
         <v>1144</v>
       </c>
@@ -44920,7 +44962,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="474" spans="1:45">
+    <row r="474" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
         <v>1145</v>
       </c>
@@ -45009,7 +45051,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="475" spans="1:45">
+    <row r="475" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
         <v>1144</v>
       </c>
@@ -45102,7 +45144,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="476" spans="1:45">
+    <row r="476" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
         <v>1144</v>
       </c>
@@ -45201,7 +45243,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="477" spans="1:45">
+    <row r="477" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A477" s="6" t="s">
         <v>1144</v>
       </c>
@@ -45273,7 +45315,7 @@
       <c r="AQ477" s="3"/>
       <c r="AR477" s="3"/>
     </row>
-    <row r="478" spans="1:45">
+    <row r="478" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A478" s="6" t="s">
         <v>1144</v>
       </c>
@@ -45348,7 +45390,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="479" spans="1:45">
+    <row r="479" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A479" s="6" t="s">
         <v>1144</v>
       </c>
@@ -45420,7 +45462,7 @@
       <c r="AQ479" s="3"/>
       <c r="AR479" s="3"/>
     </row>
-    <row r="480" spans="1:45">
+    <row r="480" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A480" s="6" t="s">
         <v>1144</v>
       </c>
@@ -45508,7 +45550,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="481" spans="1:45">
+    <row r="481" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A481" s="6" t="s">
         <v>1145</v>
       </c>
@@ -45596,7 +45638,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="482" spans="1:45">
+    <row r="482" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A482" s="6" t="s">
         <v>1144</v>
       </c>
@@ -45673,7 +45715,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="483" spans="1:45">
+    <row r="483" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A483" s="6" t="s">
         <v>1144</v>
       </c>
@@ -45745,7 +45787,7 @@
       <c r="AQ483" s="3"/>
       <c r="AR483" s="3"/>
     </row>
-    <row r="484" spans="1:45">
+    <row r="484" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A484" s="6" t="s">
         <v>1144</v>
       </c>
@@ -45825,7 +45867,7 @@
       <c r="AQ484" s="3"/>
       <c r="AR484" s="3"/>
     </row>
-    <row r="485" spans="1:45">
+    <row r="485" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A485" s="6" t="s">
         <v>1144</v>
       </c>
@@ -45894,7 +45936,7 @@
       <c r="AQ485" s="3"/>
       <c r="AR485" s="3"/>
     </row>
-    <row r="486" spans="1:45">
+    <row r="486" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A486" s="6" t="s">
         <v>1144</v>
       </c>
@@ -45984,7 +46026,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="487" spans="1:45">
+    <row r="487" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
         <v>1144</v>
       </c>
@@ -46080,7 +46122,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="488" spans="1:45">
+    <row r="488" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A488" s="6" t="s">
         <v>1144</v>
       </c>
@@ -46166,7 +46208,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="489" spans="1:45">
+    <row r="489" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
         <v>1145</v>
       </c>
@@ -46243,7 +46285,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="490" spans="1:45">
+    <row r="490" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A490" s="6" t="s">
         <v>1144</v>
       </c>
@@ -46332,7 +46374,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="491" spans="1:45">
+    <row r="491" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A491" s="6" t="s">
         <v>1144</v>
       </c>
@@ -46412,7 +46454,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="492" spans="1:45">
+    <row r="492" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A492" s="6" t="s">
         <v>1144</v>
       </c>
@@ -46487,7 +46529,7 @@
       <c r="AQ492" s="3"/>
       <c r="AR492" s="3"/>
     </row>
-    <row r="493" spans="1:45">
+    <row r="493" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A493" s="6" t="s">
         <v>1144</v>
       </c>
@@ -46564,7 +46606,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="494" spans="1:45">
+    <row r="494" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
         <v>1145</v>
       </c>
@@ -46638,7 +46680,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="495" spans="1:45">
+    <row r="495" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A495" s="6" t="s">
         <v>1144</v>
       </c>
@@ -46733,7 +46775,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="496" spans="1:45">
+    <row r="496" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A496" s="6" t="s">
         <v>1144</v>
       </c>
@@ -46814,7 +46856,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="497" spans="1:45">
+    <row r="497" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A497" s="6" t="s">
         <v>1144</v>
       </c>
@@ -46900,7 +46942,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="498" spans="1:45">
+    <row r="498" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
         <v>1144</v>
       </c>
@@ -46981,7 +47023,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="499" spans="1:45">
+    <row r="499" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A499" s="6" t="s">
         <v>1144</v>
       </c>
@@ -47062,7 +47104,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="500" spans="1:45">
+    <row r="500" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
         <v>1145</v>
       </c>
@@ -47139,7 +47181,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="501" spans="1:45">
+    <row r="501" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A501" s="6" t="s">
         <v>1144</v>
       </c>
@@ -47222,7 +47264,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="502" spans="1:45">
+    <row r="502" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A502" s="6" t="s">
         <v>1144</v>
       </c>
@@ -47300,7 +47342,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="503" spans="1:45">
+    <row r="503" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A503" s="6" t="s">
         <v>1144</v>
       </c>
@@ -47378,7 +47420,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="504" spans="1:45">
+    <row r="504" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
         <v>1145</v>
       </c>
@@ -47452,7 +47494,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="505" spans="1:45">
+    <row r="505" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A505" s="6" t="s">
         <v>1144</v>
       </c>
@@ -47547,7 +47589,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="506" spans="1:45">
+    <row r="506" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A506" s="6" t="s">
         <v>1144</v>
       </c>
@@ -47624,7 +47666,7 @@
       <c r="AQ506" s="3"/>
       <c r="AR506" s="3"/>
     </row>
-    <row r="507" spans="1:45">
+    <row r="507" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A507" s="6" t="s">
         <v>1144</v>
       </c>
@@ -47702,7 +47744,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="508" spans="1:45">
+    <row r="508" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
         <v>1144</v>
       </c>
@@ -47780,7 +47822,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="509" spans="1:45">
+    <row r="509" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A509" s="6" t="s">
         <v>1144</v>
       </c>
@@ -47852,7 +47894,7 @@
       <c r="AQ509" s="3"/>
       <c r="AR509" s="3"/>
     </row>
-    <row r="510" spans="1:45">
+    <row r="510" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A510" s="6" t="s">
         <v>1144</v>
       </c>
@@ -47933,7 +47975,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="511" spans="1:45">
+    <row r="511" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
         <v>1144</v>
       </c>
@@ -48022,7 +48064,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="512" spans="1:45">
+    <row r="512" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
         <v>1144</v>
       </c>
@@ -48114,7 +48156,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="513" spans="1:45">
+    <row r="513" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
         <v>1146</v>
       </c>
@@ -48194,7 +48236,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="514" spans="1:45">
+    <row r="514" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A514" s="6" t="s">
         <v>1144</v>
       </c>
@@ -48294,7 +48336,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="515" spans="1:45">
+    <row r="515" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A515" s="6" t="s">
         <v>1144</v>
       </c>
@@ -48383,7 +48425,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="516" spans="1:45">
+    <row r="516" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A516" s="6" t="s">
         <v>1144</v>
       </c>
@@ -48466,7 +48508,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="517" spans="1:45">
+    <row r="517" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A517" s="6" t="s">
         <v>1144</v>
       </c>
@@ -48555,7 +48597,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="518" spans="1:45">
+    <row r="518" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A518" s="6" t="s">
         <v>1144</v>
       </c>
@@ -48638,7 +48680,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="519" spans="1:45">
+    <row r="519" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A519" s="3" t="s">
         <v>1145</v>
       </c>
@@ -48715,7 +48757,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="520" spans="1:45">
+    <row r="520" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A520" s="6" t="s">
         <v>1144</v>
       </c>
@@ -48798,7 +48840,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="521" spans="1:45">
+    <row r="521" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A521" s="6" t="s">
         <v>1144</v>
       </c>
@@ -48881,7 +48923,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="522" spans="1:45">
+    <row r="522" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A522" s="3" t="s">
         <v>1145</v>
       </c>
@@ -48958,7 +49000,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="523" spans="1:45">
+    <row r="523" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A523" s="6" t="s">
         <v>1144</v>
       </c>
@@ -49047,7 +49089,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="524" spans="1:45">
+    <row r="524" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A524" s="6" t="s">
         <v>1144</v>
       </c>
@@ -49138,7 +49180,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="525" spans="1:45">
+    <row r="525" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A525" s="6" t="s">
         <v>1144</v>
       </c>
@@ -49222,7 +49264,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="526" spans="1:45">
+    <row r="526" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A526" s="6" t="s">
         <v>1144</v>
       </c>
@@ -49294,7 +49336,7 @@
       <c r="AQ526" s="3"/>
       <c r="AR526" s="3"/>
     </row>
-    <row r="527" spans="1:45">
+    <row r="527" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A527" s="6" t="s">
         <v>1144</v>
       </c>
@@ -49375,7 +49417,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="528" spans="1:45">
+    <row r="528" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A528" s="6" t="s">
         <v>1144</v>
       </c>
@@ -49460,7 +49502,7 @@
       <c r="AQ528" s="3"/>
       <c r="AR528" s="3"/>
     </row>
-    <row r="529" spans="1:45">
+    <row r="529" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A529" s="6" t="s">
         <v>1144</v>
       </c>
@@ -49540,7 +49582,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="530" spans="1:45">
+    <row r="530" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A530" s="6" t="s">
         <v>1144</v>
       </c>
@@ -49623,7 +49665,7 @@
       <c r="AQ530" s="3"/>
       <c r="AR530" s="3"/>
     </row>
-    <row r="531" spans="1:45">
+    <row r="531" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A531" s="6" t="s">
         <v>1144</v>
       </c>
@@ -49709,7 +49751,7 @@
       <c r="AQ531" s="3"/>
       <c r="AR531" s="3"/>
     </row>
-    <row r="532" spans="1:45">
+    <row r="532" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A532" s="3" t="s">
         <v>1146</v>
       </c>
@@ -49783,7 +49825,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="533" spans="1:45">
+    <row r="533" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A533" s="3" t="s">
         <v>1146</v>
       </c>
@@ -49863,7 +49905,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="534" spans="1:45">
+    <row r="534" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A534" s="3" t="s">
         <v>1146</v>
       </c>
@@ -49943,7 +49985,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="535" spans="1:45">
+    <row r="535" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A535" s="3" t="s">
         <v>1146</v>
       </c>
@@ -50023,7 +50065,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="536" spans="1:45">
+    <row r="536" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A536" s="3" t="s">
         <v>1146</v>
       </c>
@@ -50118,7 +50160,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="537" spans="1:45">
+    <row r="537" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A537" s="3" t="s">
         <v>1144</v>
       </c>
@@ -50210,7 +50252,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="538" spans="1:45">
+    <row r="538" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A538" s="3" t="s">
         <v>1144</v>
       </c>
@@ -50296,7 +50338,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="539" spans="1:45">
+    <row r="539" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A539" s="6" t="s">
         <v>1144</v>
       </c>
@@ -50390,7 +50432,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="540" spans="1:45">
+    <row r="540" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A540" s="6" t="s">
         <v>1144</v>
       </c>
@@ -50484,7 +50526,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="541" spans="1:45">
+    <row r="541" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A541" s="6" t="s">
         <v>1144</v>
       </c>
@@ -50578,7 +50620,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="542" spans="1:45">
+    <row r="542" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A542" s="3" t="s">
         <v>1144</v>
       </c>
@@ -50673,7 +50715,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="543" spans="1:45">
+    <row r="543" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A543" s="6" t="s">
         <v>1144</v>
       </c>
@@ -50765,7 +50807,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="544" spans="1:45">
+    <row r="544" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A544" s="3" t="s">
         <v>1145</v>
       </c>
@@ -50857,7 +50899,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="545" spans="1:45">
+    <row r="545" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A545" s="6" t="s">
         <v>1144</v>
       </c>
@@ -50952,7 +50994,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="546" spans="1:45">
+    <row r="546" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A546" s="6" t="s">
         <v>1144</v>
       </c>
@@ -51044,7 +51086,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="547" spans="1:45">
+    <row r="547" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A547" s="6" t="s">
         <v>1144</v>
       </c>
@@ -51136,7 +51178,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="548" spans="1:45">
+    <row r="548" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A548" s="3" t="s">
         <v>1145</v>
       </c>
@@ -51231,7 +51273,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="549" spans="1:45">
+    <row r="549" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A549" s="3" t="s">
         <v>1145</v>
       </c>
@@ -51320,7 +51362,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="550" spans="1:45">
+    <row r="550" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A550" s="3" t="s">
         <v>1145</v>
       </c>
@@ -51409,7 +51451,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="551" spans="1:45">
+    <row r="551" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
         <v>1146</v>
       </c>
@@ -51489,7 +51531,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="552" spans="1:45">
+    <row r="552" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A552" s="6" t="s">
         <v>1144</v>
       </c>
@@ -51585,7 +51627,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="553" spans="1:45">
+    <row r="553" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A553" s="3" t="s">
         <v>1144</v>
       </c>
@@ -51678,7 +51720,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="554" spans="1:45">
+    <row r="554" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A554" s="3" t="s">
         <v>1144</v>
       </c>
@@ -51782,7 +51824,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="555" spans="1:45">
+    <row r="555" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A555" s="6" t="s">
         <v>1144</v>
       </c>
@@ -51878,7 +51920,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="556" spans="1:45">
+    <row r="556" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A556" s="6" t="s">
         <v>1144</v>
       </c>
@@ -51980,7 +52022,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="557" spans="1:45">
+    <row r="557" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A557" s="6" t="s">
         <v>1144</v>
       </c>
@@ -52073,7 +52115,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="558" spans="1:45">
+    <row r="558" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A558" s="6" t="s">
         <v>1144</v>
       </c>
@@ -52159,7 +52201,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="559" spans="1:45">
+    <row r="559" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A559" s="6" t="s">
         <v>1144</v>
       </c>
@@ -52231,7 +52273,7 @@
       <c r="AQ559" s="3"/>
       <c r="AR559" s="3"/>
     </row>
-    <row r="560" spans="1:45">
+    <row r="560" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A560" s="6" t="s">
         <v>1144</v>
       </c>
@@ -52308,7 +52350,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="561" spans="1:45">
+    <row r="561" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A561" s="6" t="s">
         <v>1144</v>
       </c>
@@ -52386,7 +52428,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="562" spans="1:45">
+    <row r="562" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A562" s="3" t="s">
         <v>1145</v>
       </c>
@@ -52466,7 +52508,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="563" spans="1:45">
+    <row r="563" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A563" s="6" t="s">
         <v>1144</v>
       </c>
@@ -52541,7 +52583,7 @@
       <c r="AQ563" s="3"/>
       <c r="AR563" s="3"/>
     </row>
-    <row r="564" spans="1:45">
+    <row r="564" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A564" s="3" t="s">
         <v>1144</v>
       </c>
@@ -52645,7 +52687,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="565" spans="1:45">
+    <row r="565" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A565" s="6" t="s">
         <v>1144</v>
       </c>
@@ -52723,7 +52765,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="566" spans="1:45">
+    <row r="566" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A566" s="3" t="s">
         <v>1144</v>
       </c>
@@ -52804,7 +52846,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="567" spans="1:45">
+    <row r="567" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A567" s="6" t="s">
         <v>1144</v>
       </c>
@@ -52887,7 +52929,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="568" spans="1:45">
+    <row r="568" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A568" s="6" t="s">
         <v>1144</v>
       </c>
@@ -52965,7 +53007,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="569" spans="1:45">
+    <row r="569" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A569" s="6" t="s">
         <v>1144</v>
       </c>
@@ -53043,7 +53085,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="570" spans="1:45">
+    <row r="570" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A570" s="6" t="s">
         <v>1144</v>
       </c>
@@ -53138,7 +53180,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="571" spans="1:45">
+    <row r="571" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A571" s="6" t="s">
         <v>1144</v>
       </c>
@@ -53216,7 +53258,7 @@
       <c r="AQ571" s="3"/>
       <c r="AR571" s="3"/>
     </row>
-    <row r="572" spans="1:45">
+    <row r="572" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A572" s="3" t="s">
         <v>1145</v>
       </c>
@@ -53293,7 +53335,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="573" spans="1:45">
+    <row r="573" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A573" s="3" t="s">
         <v>1144</v>
       </c>
@@ -53374,7 +53416,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="574" spans="1:45">
+    <row r="574" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A574" s="6" t="s">
         <v>1144</v>
       </c>
@@ -53471,7 +53513,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="575" spans="1:45">
+    <row r="575" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A575" s="6" t="s">
         <v>1144</v>
       </c>
@@ -53549,7 +53591,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="576" spans="1:45">
+    <row r="576" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A576" s="6" t="s">
         <v>1144</v>
       </c>
@@ -53638,7 +53680,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="577" spans="1:45">
+    <row r="577" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A577" s="3" t="s">
         <v>1145</v>
       </c>
@@ -53697,7 +53739,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="578" spans="1:45">
+    <row r="578" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A578" s="6" t="s">
         <v>1144</v>
       </c>
@@ -53798,7 +53840,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="579" spans="1:45">
+    <row r="579" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A579" s="6" t="s">
         <v>1144</v>
       </c>
@@ -53878,7 +53920,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="580" spans="1:45">
+    <row r="580" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A580" s="6" t="s">
         <v>1144</v>
       </c>
@@ -53961,7 +54003,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="581" spans="1:45">
+    <row r="581" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A581" s="6" t="s">
         <v>1144</v>
       </c>
@@ -54039,7 +54081,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="582" spans="1:45">
+    <row r="582" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A582" s="6" t="s">
         <v>1144</v>
       </c>
@@ -54116,7 +54158,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="583" spans="1:45">
+    <row r="583" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A583" s="6" t="s">
         <v>1144</v>
       </c>
@@ -54194,7 +54236,7 @@
       <c r="AQ583" s="3"/>
       <c r="AR583" s="3"/>
     </row>
-    <row r="584" spans="1:45">
+    <row r="584" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A584" s="3" t="s">
         <v>1145</v>
       </c>
@@ -54268,7 +54310,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="585" spans="1:45">
+    <row r="585" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A585" s="6" t="s">
         <v>1144</v>
       </c>
@@ -54349,7 +54391,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="586" spans="1:45">
+    <row r="586" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A586" s="6" t="s">
         <v>1144</v>
       </c>
@@ -54427,7 +54469,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="587" spans="1:45">
+    <row r="587" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A587" s="6" t="s">
         <v>1144</v>
       </c>
@@ -54519,7 +54561,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="588" spans="1:45">
+    <row r="588" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A588" s="6" t="s">
         <v>1144</v>
       </c>
@@ -54600,7 +54642,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="589" spans="1:45">
+    <row r="589" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A589" s="6" t="s">
         <v>1144</v>
       </c>
@@ -54678,7 +54720,7 @@
       <c r="AQ589" s="3"/>
       <c r="AR589" s="3"/>
     </row>
-    <row r="590" spans="1:45">
+    <row r="590" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A590" s="3" t="s">
         <v>1145</v>
       </c>
@@ -54752,7 +54794,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="591" spans="1:45">
+    <row r="591" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A591" s="6" t="s">
         <v>1144</v>
       </c>
@@ -54849,7 +54891,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="592" spans="1:45">
+    <row r="592" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A592" s="6" t="s">
         <v>1144</v>
       </c>
@@ -54930,7 +54972,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="593" spans="1:45">
+    <row r="593" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A593" s="3" t="s">
         <v>1145</v>
       </c>
@@ -54998,7 +55040,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="594" spans="1:45">
+    <row r="594" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A594" s="3" t="s">
         <v>1146</v>
       </c>
@@ -55075,7 +55117,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="595" spans="1:45">
+    <row r="595" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A595" s="6" t="s">
         <v>1144</v>
       </c>
@@ -55161,7 +55203,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="596" spans="1:45">
+    <row r="596" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A596" s="6" t="s">
         <v>1144</v>
       </c>
@@ -55241,7 +55283,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="597" spans="1:45">
+    <row r="597" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A597" s="6" t="s">
         <v>1145</v>
       </c>
@@ -55340,7 +55382,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="598" spans="1:45">
+    <row r="598" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A598" s="3" t="s">
         <v>1144</v>
       </c>
@@ -55424,7 +55466,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="599" spans="1:45">
+    <row r="599" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A599" s="6" t="s">
         <v>1144</v>
       </c>
@@ -55523,7 +55565,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="600" spans="1:45">
+    <row r="600" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A600" s="3" t="s">
         <v>1144</v>
       </c>
@@ -55607,7 +55649,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="601" spans="1:45">
+    <row r="601" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A601" s="6" t="s">
         <v>1144</v>
       </c>
@@ -55704,7 +55746,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="602" spans="1:45">
+    <row r="602" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A602" s="6" t="s">
         <v>1144</v>
       </c>
@@ -55782,7 +55824,7 @@
       <c r="AQ602" s="3"/>
       <c r="AR602" s="3"/>
     </row>
-    <row r="603" spans="1:45">
+    <row r="603" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A603" s="6" t="s">
         <v>1144</v>
       </c>
@@ -55863,7 +55905,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="604" spans="1:45">
+    <row r="604" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A604" s="6" t="s">
         <v>1144</v>
       </c>
@@ -55938,7 +55980,7 @@
       <c r="AQ604" s="3"/>
       <c r="AR604" s="3"/>
     </row>
-    <row r="605" spans="1:45">
+    <row r="605" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A605" s="6" t="s">
         <v>1144</v>
       </c>
@@ -56016,7 +56058,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="606" spans="1:45">
+    <row r="606" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A606" s="6" t="s">
         <v>1144</v>
       </c>
@@ -56096,7 +56138,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="607" spans="1:45">
+    <row r="607" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A607" s="6" t="s">
         <v>1144</v>
       </c>
@@ -56197,7 +56239,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="608" spans="1:45">
+    <row r="608" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A608" s="6" t="s">
         <v>1144</v>
       </c>
@@ -56278,7 +56320,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="609" spans="1:45">
+    <row r="609" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A609" s="3" t="s">
         <v>1145</v>
       </c>
@@ -56355,7 +56397,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="610" spans="1:45">
+    <row r="610" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A610" s="6" t="s">
         <v>1144</v>
       </c>
@@ -56441,7 +56483,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="611" spans="1:45">
+    <row r="611" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A611" s="3" t="s">
         <v>1145</v>
       </c>
@@ -56533,7 +56575,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="612" spans="1:45">
+    <row r="612" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A612" s="6" t="s">
         <v>1144</v>
       </c>
@@ -56630,7 +56672,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="613" spans="1:45">
+    <row r="613" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A613" s="6" t="s">
         <v>1144</v>
       </c>
@@ -56720,7 +56762,7 @@
       <c r="AQ613" s="3"/>
       <c r="AR613" s="3"/>
     </row>
-    <row r="614" spans="1:45">
+    <row r="614" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A614" s="6" t="s">
         <v>1144</v>
       </c>
@@ -56807,7 +56849,7 @@
       </c>
       <c r="AR614" s="3"/>
     </row>
-    <row r="615" spans="1:45">
+    <row r="615" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A615" s="6" t="s">
         <v>1144</v>
       </c>
@@ -56888,7 +56930,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="616" spans="1:45">
+    <row r="616" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A616" s="6" t="s">
         <v>1144</v>
       </c>
@@ -56978,7 +57020,7 @@
       <c r="AQ616" s="3"/>
       <c r="AR616" s="3"/>
     </row>
-    <row r="617" spans="1:45">
+    <row r="617" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A617" s="6" t="s">
         <v>1144</v>
       </c>
@@ -57068,7 +57110,7 @@
       <c r="AQ617" s="3"/>
       <c r="AR617" s="3"/>
     </row>
-    <row r="618" spans="1:45">
+    <row r="618" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A618" s="6" t="s">
         <v>1144</v>
       </c>
@@ -57158,7 +57200,7 @@
       <c r="AQ618" s="3"/>
       <c r="AR618" s="3"/>
     </row>
-    <row r="619" spans="1:45">
+    <row r="619" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A619" s="6" t="s">
         <v>1144</v>
       </c>
@@ -57241,7 +57283,7 @@
       <c r="AQ619" s="3"/>
       <c r="AR619" s="3"/>
     </row>
-    <row r="620" spans="1:45">
+    <row r="620" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A620" s="3" t="s">
         <v>1145</v>
       </c>
@@ -57315,7 +57357,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="621" spans="1:45">
+    <row r="621" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A621" s="3" t="s">
         <v>1144</v>
       </c>
@@ -57404,7 +57446,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="622" spans="1:45">
+    <row r="622" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A622" s="3" t="s">
         <v>1146</v>
       </c>
@@ -57490,7 +57532,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="623" spans="1:45">
+    <row r="623" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A623" s="6" t="s">
         <v>1144</v>
       </c>
@@ -57583,7 +57625,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="624" spans="1:45">
+    <row r="624" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A624" s="6" t="s">
         <v>1144</v>
       </c>
@@ -57673,7 +57715,7 @@
       <c r="AQ624" s="3"/>
       <c r="AR624" s="3"/>
     </row>
-    <row r="625" spans="1:45">
+    <row r="625" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A625" s="6" t="s">
         <v>1144</v>
       </c>
@@ -57766,7 +57808,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="626" spans="1:45">
+    <row r="626" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A626" s="6" t="s">
         <v>1144</v>
       </c>
@@ -57856,7 +57898,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="627" spans="1:45">
+    <row r="627" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A627" s="3" t="s">
         <v>1146</v>
       </c>
@@ -57918,7 +57960,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="628" spans="1:45">
+    <row r="628" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A628" s="3" t="s">
         <v>1146</v>
       </c>
@@ -58007,7 +58049,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="629" spans="1:45">
+    <row r="629" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A629" s="6" t="s">
         <v>1144</v>
       </c>
@@ -58084,7 +58126,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="630" spans="1:45">
+    <row r="630" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A630" s="6" t="s">
         <v>1144</v>
       </c>
@@ -58185,7 +58227,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="631" spans="1:45">
+    <row r="631" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A631" s="6" t="s">
         <v>1145</v>
       </c>
@@ -58282,7 +58324,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="632" spans="1:45">
+    <row r="632" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A632" s="6" t="s">
         <v>1144</v>
       </c>
@@ -58357,7 +58399,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="633" spans="1:45">
+    <row r="633" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A633" s="6" t="s">
         <v>1144</v>
       </c>
@@ -58436,7 +58478,7 @@
       <c r="AQ633" s="3"/>
       <c r="AR633" s="3"/>
     </row>
-    <row r="634" spans="1:45">
+    <row r="634" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A634" s="6" t="s">
         <v>1144</v>
       </c>
@@ -58547,7 +58589,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="635" spans="1:45">
+    <row r="635" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A635" s="6" t="s">
         <v>1144</v>
       </c>
@@ -58606,7 +58648,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="636" spans="1:45">
+    <row r="636" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A636" s="6" t="s">
         <v>1144</v>
       </c>
@@ -58677,7 +58719,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="637" spans="1:45">
+    <row r="637" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A637" s="3" t="s">
         <v>1144</v>
       </c>
@@ -58755,7 +58797,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="638" spans="1:45">
+    <row r="638" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A638" s="6" t="s">
         <v>1144</v>
       </c>
@@ -58835,7 +58877,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="639" spans="1:45">
+    <row r="639" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A639" s="6" t="s">
         <v>1144</v>
       </c>
@@ -58913,7 +58955,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="640" spans="1:45">
+    <row r="640" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A640" s="6" t="s">
         <v>1144</v>
       </c>
@@ -58991,7 +59033,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="641" spans="1:45">
+    <row r="641" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A641" s="6" t="s">
         <v>1144</v>
       </c>
@@ -59072,7 +59114,7 @@
       <c r="AQ641" s="3"/>
       <c r="AR641" s="3"/>
     </row>
-    <row r="642" spans="1:45">
+    <row r="642" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A642" s="3" t="s">
         <v>1144</v>
       </c>
@@ -59156,7 +59198,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="643" spans="1:45">
+    <row r="643" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A643" s="6" t="s">
         <v>1144</v>
       </c>
@@ -59244,7 +59286,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="644" spans="1:45">
+    <row r="644" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A644" s="6" t="s">
         <v>1144</v>
       </c>
@@ -59322,7 +59364,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="645" spans="1:45">
+    <row r="645" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A645" s="6" t="s">
         <v>1144</v>
       </c>
@@ -59408,7 +59450,7 @@
       </c>
       <c r="AS645" s="6"/>
     </row>
-    <row r="646" spans="1:45">
+    <row r="646" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A646" s="6" t="s">
         <v>1144</v>
       </c>
@@ -59511,7 +59553,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="647" spans="1:45">
+    <row r="647" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A647" s="3" t="s">
         <v>1144</v>
       </c>
@@ -59595,7 +59637,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="648" spans="1:45">
+    <row r="648" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A648" s="6" t="s">
         <v>1144</v>
       </c>
@@ -59682,7 +59724,7 @@
       <c r="AQ648" s="3"/>
       <c r="AR648" s="3"/>
     </row>
-    <row r="649" spans="1:45">
+    <row r="649" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A649" s="6" t="s">
         <v>1144</v>
       </c>
@@ -59781,7 +59823,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="650" spans="1:45">
+    <row r="650" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A650" s="6" t="s">
         <v>1144</v>
       </c>
@@ -59880,7 +59922,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="651" spans="1:45">
+    <row r="651" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A651" s="6" t="s">
         <v>1144</v>
       </c>
@@ -59960,7 +60002,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="652" spans="1:45">
+    <row r="652" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A652" s="6" t="s">
         <v>1144</v>
       </c>
@@ -60038,7 +60080,7 @@
       <c r="AQ652" s="3"/>
       <c r="AR652" s="3"/>
     </row>
-    <row r="653" spans="1:45">
+    <row r="653" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A653" s="6" t="s">
         <v>1144</v>
       </c>
@@ -60131,7 +60173,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="654" spans="1:45">
+    <row r="654" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A654" s="6" t="s">
         <v>1144</v>
       </c>
@@ -60206,7 +60248,7 @@
       <c r="AQ654" s="3"/>
       <c r="AR654" s="3"/>
     </row>
-    <row r="655" spans="1:45">
+    <row r="655" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A655" s="6" t="s">
         <v>1144</v>
       </c>
@@ -60287,7 +60329,7 @@
       <c r="AQ655" s="3"/>
       <c r="AR655" s="3"/>
     </row>
-    <row r="656" spans="1:45">
+    <row r="656" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A656" s="6" t="s">
         <v>1144</v>
       </c>
@@ -60368,7 +60410,7 @@
       <c r="AQ656" s="3"/>
       <c r="AR656" s="3"/>
     </row>
-    <row r="657" spans="1:45">
+    <row r="657" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A657" s="6" t="s">
         <v>1144</v>
       </c>
@@ -60449,7 +60491,7 @@
       <c r="AQ657" s="3"/>
       <c r="AR657" s="3"/>
     </row>
-    <row r="658" spans="1:45">
+    <row r="658" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A658" s="6" t="s">
         <v>1144</v>
       </c>
@@ -60527,7 +60569,7 @@
       <c r="AQ658" s="3"/>
       <c r="AR658" s="3"/>
     </row>
-    <row r="659" spans="1:45">
+    <row r="659" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A659" s="6" t="s">
         <v>1144</v>
       </c>
@@ -60608,7 +60650,7 @@
       <c r="AQ659" s="3"/>
       <c r="AR659" s="3"/>
     </row>
-    <row r="660" spans="1:45">
+    <row r="660" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A660" s="3" t="s">
         <v>1145</v>
       </c>
@@ -60664,7 +60706,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="661" spans="1:45">
+    <row r="661" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A661" s="6" t="s">
         <v>1144</v>
       </c>
@@ -60745,7 +60787,7 @@
       <c r="AQ661" s="3"/>
       <c r="AR661" s="3"/>
     </row>
-    <row r="662" spans="1:45">
+    <row r="662" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A662" s="6" t="s">
         <v>1144</v>
       </c>
@@ -60829,7 +60871,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="663" spans="1:45">
+    <row r="663" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A663" s="6" t="s">
         <v>1144</v>
       </c>
@@ -60910,7 +60952,7 @@
       <c r="AQ663" s="3"/>
       <c r="AR663" s="3"/>
     </row>
-    <row r="664" spans="1:45">
+    <row r="664" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A664" s="3" t="s">
         <v>1144</v>
       </c>
@@ -60990,7 +61032,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="665" spans="1:45">
+    <row r="665" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A665" s="3" t="s">
         <v>1144</v>
       </c>
@@ -61076,7 +61118,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="666" spans="1:45">
+    <row r="666" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A666" s="3" t="s">
         <v>1144</v>
       </c>
@@ -61156,7 +61198,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="667" spans="1:45">
+    <row r="667" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A667" s="3" t="s">
         <v>1146</v>
       </c>
@@ -61236,7 +61278,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="668" spans="1:45">
+    <row r="668" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A668" s="3" t="s">
         <v>1146</v>
       </c>
@@ -61316,7 +61358,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="669" spans="1:45">
+    <row r="669" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A669" s="3" t="s">
         <v>1146</v>
       </c>
@@ -61396,7 +61438,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="670" spans="1:45">
+    <row r="670" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A670" s="3" t="s">
         <v>1146</v>
       </c>
@@ -61476,7 +61518,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="671" spans="1:45">
+    <row r="671" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A671" s="6" t="s">
         <v>1144</v>
       </c>
@@ -61581,7 +61623,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="672" spans="1:45">
+    <row r="672" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A672" s="3" t="s">
         <v>1144</v>
       </c>
@@ -61661,7 +61703,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="673" spans="1:45">
+    <row r="673" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A673" s="3" t="s">
         <v>1144</v>
       </c>
@@ -61741,7 +61783,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="674" spans="1:45">
+    <row r="674" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A674" s="3" t="s">
         <v>1144</v>
       </c>
@@ -61842,7 +61884,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="675" spans="1:45">
+    <row r="675" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A675" s="6" t="s">
         <v>1144</v>
       </c>
@@ -61931,7 +61973,7 @@
       <c r="AQ675" s="3"/>
       <c r="AR675" s="3"/>
     </row>
-    <row r="676" spans="1:45">
+    <row r="676" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A676" s="6" t="s">
         <v>1144</v>
       </c>
@@ -62012,7 +62054,7 @@
       <c r="AQ676" s="3"/>
       <c r="AR676" s="3"/>
     </row>
-    <row r="677" spans="1:45">
+    <row r="677" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A677" s="6" t="s">
         <v>1144</v>
       </c>
@@ -62092,7 +62134,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="678" spans="1:45">
+    <row r="678" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A678" s="6" t="s">
         <v>1144</v>
       </c>
@@ -62173,7 +62215,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="679" spans="1:45">
+    <row r="679" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A679" s="3" t="s">
         <v>1146</v>
       </c>
@@ -62262,7 +62304,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="680" spans="1:45">
+    <row r="680" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A680" s="3" t="s">
         <v>1146</v>
       </c>
@@ -62351,7 +62393,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="681" spans="1:45">
+    <row r="681" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A681" s="3" t="s">
         <v>1146</v>
       </c>
@@ -62440,7 +62482,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="682" spans="1:45">
+    <row r="682" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A682" s="6" t="s">
         <v>1144</v>
       </c>
@@ -62527,7 +62569,7 @@
       <c r="AQ682" s="3"/>
       <c r="AR682" s="3"/>
     </row>
-    <row r="683" spans="1:45">
+    <row r="683" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A683" s="6" t="s">
         <v>1144</v>
       </c>
@@ -62614,7 +62656,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="684" spans="1:45">
+    <row r="684" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A684" s="6" t="s">
         <v>1144</v>
       </c>
@@ -62701,7 +62743,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="685" spans="1:45">
+    <row r="685" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A685" s="6" t="s">
         <v>1144</v>
       </c>
@@ -62791,7 +62833,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="686" spans="1:45">
+    <row r="686" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A686" s="3" t="s">
         <v>1144</v>
       </c>
@@ -62875,7 +62917,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="687" spans="1:45">
+    <row r="687" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A687" s="3" t="s">
         <v>1144</v>
       </c>
@@ -62964,7 +63006,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="688" spans="1:45">
+    <row r="688" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A688" s="3" t="s">
         <v>1144</v>
       </c>
@@ -63053,7 +63095,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="689" spans="1:45">
+    <row r="689" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A689" s="6" t="s">
         <v>1144</v>
       </c>
@@ -63133,7 +63175,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="690" spans="1:45">
+    <row r="690" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A690" s="6" t="s">
         <v>1144</v>
       </c>
@@ -63216,7 +63258,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="691" spans="1:45">
+    <row r="691" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A691" s="6" t="s">
         <v>1144</v>
       </c>
@@ -63299,7 +63341,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="692" spans="1:45">
+    <row r="692" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A692" s="6" t="s">
         <v>1144</v>
       </c>
@@ -63380,7 +63422,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="693" spans="1:45">
+    <row r="693" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A693" s="6" t="s">
         <v>1144</v>
       </c>
@@ -63466,7 +63508,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="694" spans="1:45">
+    <row r="694" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A694" s="6" t="s">
         <v>1144</v>
       </c>
@@ -63549,7 +63591,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="695" spans="1:45">
+    <row r="695" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A695" s="6" t="s">
         <v>1144</v>
       </c>
@@ -63627,7 +63669,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="696" spans="1:45">
+    <row r="696" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A696" s="3" t="s">
         <v>1145</v>
       </c>
@@ -63701,7 +63743,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="697" spans="1:45">
+    <row r="697" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A697" s="6" t="s">
         <v>1144</v>
       </c>
@@ -63799,7 +63841,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="698" spans="1:45">
+    <row r="698" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A698" s="6" t="s">
         <v>1144</v>
       </c>
@@ -63891,7 +63933,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="699" spans="1:45">
+    <row r="699" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A699" s="6" t="s">
         <v>1144</v>
       </c>
@@ -63983,7 +64025,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="700" spans="1:45">
+    <row r="700" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A700" s="6" t="s">
         <v>1144</v>
       </c>
@@ -64075,7 +64117,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="701" spans="1:45">
+    <row r="701" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A701" s="6" t="s">
         <v>1144</v>
       </c>
@@ -64165,7 +64207,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="702" spans="1:45">
+    <row r="702" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A702" s="6" t="s">
         <v>1144</v>
       </c>
@@ -64257,7 +64299,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="703" spans="1:45">
+    <row r="703" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A703" s="6" t="s">
         <v>1144</v>
       </c>
@@ -64346,7 +64388,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="704" spans="1:45">
+    <row r="704" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A704" s="6" t="s">
         <v>1144</v>
       </c>
@@ -64437,7 +64479,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="705" spans="1:45">
+    <row r="705" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A705" s="6" t="s">
         <v>1144</v>
       </c>
@@ -64518,7 +64560,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="706" spans="1:45">
+    <row r="706" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A706" s="6" t="s">
         <v>1144</v>
       </c>
@@ -64607,7 +64649,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="707" spans="1:45">
+    <row r="707" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A707" s="6" t="s">
         <v>1144</v>
       </c>
@@ -64687,7 +64729,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="708" spans="1:45">
+    <row r="708" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A708" s="6" t="s">
         <v>1144</v>
       </c>
@@ -64767,7 +64809,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="709" spans="1:45">
+    <row r="709" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A709" s="6" t="s">
         <v>1144</v>
       </c>
@@ -64850,7 +64892,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="710" spans="1:45">
+    <row r="710" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A710" s="6" t="s">
         <v>1144</v>
       </c>
@@ -64931,7 +64973,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="711" spans="1:45">
+    <row r="711" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A711" s="3" t="s">
         <v>1144</v>
       </c>
@@ -65012,7 +65054,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="712" spans="1:45">
+    <row r="712" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A712" s="6" t="s">
         <v>1144</v>
       </c>
@@ -65098,7 +65140,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="713" spans="1:45">
+    <row r="713" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A713" s="6" t="s">
         <v>1144</v>
       </c>
@@ -65181,7 +65223,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="714" spans="1:45">
+    <row r="714" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A714" s="3" t="s">
         <v>1145</v>
       </c>
@@ -65258,7 +65300,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="715" spans="1:45">
+    <row r="715" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A715" s="6" t="s">
         <v>1144</v>
       </c>
@@ -65351,7 +65393,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="716" spans="1:45">
+    <row r="716" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A716" s="6" t="s">
         <v>1144</v>
       </c>
@@ -65449,7 +65491,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="717" spans="1:45">
+    <row r="717" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A717" s="6" t="s">
         <v>1144</v>
       </c>
@@ -65547,7 +65589,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="718" spans="1:45">
+    <row r="718" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A718" s="6" t="s">
         <v>1144</v>
       </c>
@@ -65640,7 +65682,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="719" spans="1:45">
+    <row r="719" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A719" s="6" t="s">
         <v>1144</v>
       </c>
@@ -65721,7 +65763,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="720" spans="1:45">
+    <row r="720" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A720" s="3" t="s">
         <v>1145</v>
       </c>
@@ -65795,7 +65837,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="721" spans="1:45">
+    <row r="721" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A721" s="6" t="s">
         <v>1144</v>
       </c>
@@ -65885,7 +65927,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="722" spans="1:45">
+    <row r="722" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A722" s="6" t="s">
         <v>1144</v>
       </c>
@@ -65971,7 +66013,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="723" spans="1:45">
+    <row r="723" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A723" s="6" t="s">
         <v>1144</v>
       </c>
@@ -66060,7 +66102,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="724" spans="1:45">
+    <row r="724" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A724" s="6" t="s">
         <v>1144</v>
       </c>
@@ -66162,7 +66204,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="725" spans="1:45">
+    <row r="725" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A725" s="6" t="s">
         <v>1144</v>
       </c>
@@ -66251,7 +66293,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="726" spans="1:45">
+    <row r="726" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A726" s="3" t="s">
         <v>1145</v>
       </c>
@@ -66328,7 +66370,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="727" spans="1:45">
+    <row r="727" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A727" s="6" t="s">
         <v>1144</v>
       </c>
@@ -66417,7 +66459,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="728" spans="1:45">
+    <row r="728" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A728" s="6" t="s">
         <v>1144</v>
       </c>
@@ -66506,7 +66548,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="729" spans="1:45">
+    <row r="729" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A729" s="3" t="s">
         <v>1144</v>
       </c>
@@ -66587,7 +66629,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="730" spans="1:45">
+    <row r="730" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A730" s="6" t="s">
         <v>1144</v>
       </c>
@@ -66668,7 +66710,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="731" spans="1:45">
+    <row r="731" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A731" s="6" t="s">
         <v>1144</v>
       </c>
@@ -66752,7 +66794,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="732" spans="1:45">
+    <row r="732" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A732" s="6" t="s">
         <v>1144</v>
       </c>
@@ -66836,7 +66878,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="733" spans="1:45">
+    <row r="733" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A733" s="6" t="s">
         <v>1144</v>
       </c>
@@ -66917,7 +66959,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="734" spans="1:45">
+    <row r="734" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A734" s="3" t="s">
         <v>1145</v>
       </c>
@@ -66991,7 +67033,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="735" spans="1:45">
+    <row r="735" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A735" s="6" t="s">
         <v>1144</v>
       </c>
@@ -67077,7 +67119,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="736" spans="1:45">
+    <row r="736" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A736" s="6" t="s">
         <v>1144</v>
       </c>
@@ -67179,7 +67221,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="737" spans="1:45">
+    <row r="737" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A737" s="3" t="s">
         <v>1144</v>
       </c>
@@ -67263,7 +67305,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="738" spans="1:45">
+    <row r="738" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A738" s="6" t="s">
         <v>1144</v>
       </c>
@@ -67344,7 +67386,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="739" spans="1:45">
+    <row r="739" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A739" s="6" t="s">
         <v>1144</v>
       </c>
@@ -67434,7 +67476,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="740" spans="1:45">
+    <row r="740" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A740" s="3" t="s">
         <v>1144</v>
       </c>
@@ -67533,7 +67575,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="741" spans="1:45">
+    <row r="741" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A741" s="6" t="s">
         <v>1144</v>
       </c>
@@ -67617,7 +67659,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="742" spans="1:45">
+    <row r="742" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A742" s="6" t="s">
         <v>1144</v>
       </c>
@@ -67701,7 +67743,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="743" spans="1:45">
+    <row r="743" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A743" s="6" t="s">
         <v>1144</v>
       </c>
@@ -67790,7 +67832,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="744" spans="1:45">
+    <row r="744" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A744" s="6" t="s">
         <v>1144</v>
       </c>
@@ -67883,7 +67925,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="745" spans="1:45">
+    <row r="745" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A745" s="6" t="s">
         <v>1144</v>
       </c>
@@ -67964,7 +68006,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="746" spans="1:45">
+    <row r="746" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A746" s="6" t="s">
         <v>1144</v>
       </c>
@@ -68045,7 +68087,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="747" spans="1:45">
+    <row r="747" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A747" s="3" t="s">
         <v>1145</v>
       </c>
@@ -68125,7 +68167,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="748" spans="1:45">
+    <row r="748" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A748" s="6" t="s">
         <v>1144</v>
       </c>
@@ -68206,7 +68248,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="749" spans="1:45">
+    <row r="749" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A749" s="6" t="s">
         <v>1144</v>
       </c>
@@ -68287,7 +68329,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="750" spans="1:45">
+    <row r="750" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A750" s="6" t="s">
         <v>1144</v>
       </c>
@@ -68389,7 +68431,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="751" spans="1:45">
+    <row r="751" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A751" s="6" t="s">
         <v>1144</v>
       </c>
@@ -68476,7 +68518,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="752" spans="1:45">
+    <row r="752" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A752" s="6" t="s">
         <v>1144</v>
       </c>
@@ -68557,7 +68599,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="753" spans="1:45">
+    <row r="753" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A753" s="6" t="s">
         <v>1144</v>
       </c>
@@ -68672,7 +68714,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="754" spans="1:45">
+    <row r="754" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A754" s="6" t="s">
         <v>1144</v>
       </c>
@@ -68771,7 +68813,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="755" spans="1:45">
+    <row r="755" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A755" s="6" t="s">
         <v>1144</v>
       </c>
@@ -68852,7 +68894,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="756" spans="1:45">
+    <row r="756" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A756" s="6" t="s">
         <v>1144</v>
       </c>
@@ -68924,7 +68966,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="757" spans="1:45">
+    <row r="757" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A757" s="3" t="s">
         <v>1145</v>
       </c>
@@ -69013,7 +69055,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="758" spans="1:45">
+    <row r="758" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A758" s="6" t="s">
         <v>1144</v>
       </c>
@@ -69106,7 +69148,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="759" spans="1:45">
+    <row r="759" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A759" s="6" t="s">
         <v>1144</v>
       </c>
@@ -69187,7 +69229,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="760" spans="1:45">
+    <row r="760" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A760" s="6" t="s">
         <v>1144</v>
       </c>
@@ -69271,7 +69313,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="761" spans="1:45">
+    <row r="761" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A761" s="6" t="s">
         <v>1144</v>
       </c>
@@ -69364,7 +69406,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="762" spans="1:45">
+    <row r="762" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A762" s="6" t="s">
         <v>1144</v>
       </c>
@@ -69445,7 +69487,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="763" spans="1:45">
+    <row r="763" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A763" s="6" t="s">
         <v>1144</v>
       </c>
@@ -69526,7 +69568,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="764" spans="1:45">
+    <row r="764" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A764" s="3" t="s">
         <v>1144</v>
       </c>
@@ -69613,7 +69655,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="765" spans="1:45">
+    <row r="765" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A765" s="3" t="s">
         <v>1145</v>
       </c>
@@ -69714,7 +69756,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="766" spans="1:45">
+    <row r="766" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A766" s="3" t="s">
         <v>1145</v>
       </c>
@@ -69803,7 +69845,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="767" spans="1:45">
+    <row r="767" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A767" s="3" t="s">
         <v>1145</v>
       </c>
@@ -69892,7 +69934,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="768" spans="1:45">
+    <row r="768" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A768" s="3" t="s">
         <v>1145</v>
       </c>
@@ -69942,7 +69984,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="769" spans="1:45">
+    <row r="769" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A769" s="3" t="s">
         <v>1145</v>
       </c>
@@ -70022,7 +70064,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="770" spans="1:45">
+    <row r="770" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A770" s="3" t="s">
         <v>1145</v>
       </c>
@@ -70105,7 +70147,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="771" spans="1:45">
+    <row r="771" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A771" s="3" t="s">
         <v>1145</v>
       </c>
@@ -70188,7 +70230,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="772" spans="1:45">
+    <row r="772" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A772" s="3" t="s">
         <v>1145</v>
       </c>
@@ -70271,7 +70313,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="773" spans="1:45">
+    <row r="773" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A773" s="3" t="s">
         <v>1145</v>
       </c>
@@ -70360,7 +70402,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="774" spans="1:45">
+    <row r="774" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A774" s="3" t="s">
         <v>1145</v>
       </c>
@@ -70452,7 +70494,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="775" spans="1:45">
+    <row r="775" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A775" s="3" t="s">
         <v>1145</v>
       </c>
@@ -70529,7 +70571,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="776" spans="1:45">
+    <row r="776" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A776" s="3" t="s">
         <v>1145</v>
       </c>
@@ -70606,7 +70648,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="777" spans="1:45">
+    <row r="777" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A777" s="3" t="s">
         <v>1144</v>
       </c>
@@ -70698,7 +70740,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="778" spans="1:45">
+    <row r="778" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A778" s="3" t="s">
         <v>1144</v>
       </c>
@@ -70791,7 +70833,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="779" spans="1:45">
+    <row r="779" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A779" s="3" t="s">
         <v>1144</v>
       </c>
@@ -70890,7 +70932,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="780" spans="1:45">
+    <row r="780" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A780" s="3" t="s">
         <v>1144</v>
       </c>
@@ -70992,7 +71034,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="781" spans="1:45">
+    <row r="781" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A781" s="3" t="s">
         <v>1144</v>
       </c>
@@ -71082,7 +71124,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="782" spans="1:45">
+    <row r="782" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A782" s="3" t="s">
         <v>1144</v>
       </c>
@@ -71184,7 +71226,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="783" spans="1:45">
+    <row r="783" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A783" s="3" t="s">
         <v>1144</v>
       </c>
@@ -71283,7 +71325,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="784" spans="1:45">
+    <row r="784" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A784" s="3" t="s">
         <v>1144</v>
       </c>
@@ -71363,7 +71405,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="785" spans="1:45">
+    <row r="785" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A785" s="3" t="s">
         <v>1144</v>
       </c>
@@ -71443,7 +71485,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="786" spans="1:45">
+    <row r="786" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A786" s="3" t="s">
         <v>1144</v>
       </c>
@@ -71532,7 +71574,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="787" spans="1:45">
+    <row r="787" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A787" s="3" t="s">
         <v>1144</v>
       </c>
@@ -71621,7 +71663,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="788" spans="1:45">
+    <row r="788" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A788" s="3" t="s">
         <v>1144</v>
       </c>
@@ -71710,7 +71752,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="789" spans="1:45">
+    <row r="789" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A789" s="3" t="s">
         <v>1144</v>
       </c>
@@ -71799,7 +71841,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="790" spans="1:45">
+    <row r="790" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A790" s="3" t="s">
         <v>1144</v>
       </c>
@@ -71888,7 +71930,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="791" spans="1:45">
+    <row r="791" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A791" s="3" t="s">
         <v>1144</v>
       </c>
@@ -71986,7 +72028,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="792" spans="1:45">
+    <row r="792" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A792" s="3" t="s">
         <v>1144</v>
       </c>
@@ -72021,7 +72063,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="793" spans="1:45">
+    <row r="793" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A793" s="3" t="s">
         <v>1144</v>
       </c>
@@ -72110,7 +72152,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="794" spans="1:45">
+    <row r="794" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A794" s="3" t="s">
         <v>1144</v>
       </c>
@@ -72199,7 +72241,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="795" spans="1:45">
+    <row r="795" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A795" s="3" t="s">
         <v>1144</v>
       </c>
@@ -72288,7 +72330,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="796" spans="1:45">
+    <row r="796" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A796" s="3" t="s">
         <v>1144</v>
       </c>
@@ -72377,7 +72419,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="797" spans="1:45">
+    <row r="797" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A797" s="3" t="s">
         <v>1146</v>
       </c>
@@ -72454,7 +72496,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="798" spans="1:45">
+    <row r="798" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A798" s="3" t="s">
         <v>1144</v>
       </c>
@@ -72534,7 +72576,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="799" spans="1:45">
+    <row r="799" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A799" s="3" t="s">
         <v>1144</v>
       </c>
@@ -72623,7 +72665,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="800" spans="1:45">
+    <row r="800" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A800" s="3" t="s">
         <v>1144</v>
       </c>
@@ -72712,7 +72754,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="801" spans="1:45">
+    <row r="801" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A801" s="3" t="s">
         <v>1144</v>
       </c>
@@ -72801,7 +72843,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="802" spans="1:45">
+    <row r="802" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A802" s="3" t="s">
         <v>1144</v>
       </c>
@@ -72896,7 +72938,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="803" spans="1:45">
+    <row r="803" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A803" s="3" t="s">
         <v>1144</v>
       </c>
@@ -72985,7 +73027,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="804" spans="1:45">
+    <row r="804" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A804" s="3" t="s">
         <v>1144</v>
       </c>
@@ -73074,7 +73116,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="805" spans="1:45">
+    <row r="805" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A805" s="3" t="s">
         <v>1144</v>
       </c>
@@ -73163,7 +73205,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="806" spans="1:45">
+    <row r="806" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A806" s="3" t="s">
         <v>1145</v>
       </c>
@@ -73252,7 +73294,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="807" spans="1:45">
+    <row r="807" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A807" s="3" t="s">
         <v>1144</v>
       </c>
@@ -73354,7 +73396,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="808" spans="1:45">
+    <row r="808" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A808" s="3" t="s">
         <v>1144</v>
       </c>
@@ -73456,7 +73498,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="809" spans="1:45">
+    <row r="809" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A809" s="3" t="s">
         <v>1144</v>
       </c>
@@ -73549,7 +73591,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="810" spans="1:45">
+    <row r="810" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A810" s="3" t="s">
         <v>1144</v>
       </c>
@@ -73651,7 +73693,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="811" spans="1:45">
+    <row r="811" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A811" s="3" t="s">
         <v>1144</v>
       </c>
@@ -73738,7 +73780,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="812" spans="1:45">
+    <row r="812" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A812" s="3" t="s">
         <v>1144</v>
       </c>
@@ -73837,7 +73879,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="813" spans="1:45">
+    <row r="813" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A813" s="3" t="s">
         <v>1144</v>
       </c>
@@ -73938,7 +73980,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="814" spans="1:45">
+    <row r="814" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A814" s="3" t="s">
         <v>1144</v>
       </c>
@@ -74031,7 +74073,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="815" spans="1:45">
+    <row r="815" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A815" s="3" t="s">
         <v>1144</v>
       </c>
@@ -74133,7 +74175,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="816" spans="1:45">
+    <row r="816" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A816" s="3" t="s">
         <v>1144</v>
       </c>
@@ -74226,7 +74268,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="817" spans="1:45">
+    <row r="817" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A817" s="3" t="s">
         <v>1144</v>
       </c>
@@ -74328,7 +74370,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="818" spans="1:45">
+    <row r="818" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A818" s="3" t="s">
         <v>1144</v>
       </c>
@@ -74430,7 +74472,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="819" spans="1:45">
+    <row r="819" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A819" s="3" t="s">
         <v>1144</v>
       </c>
@@ -74529,7 +74571,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="820" spans="1:45">
+    <row r="820" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A820" s="3" t="s">
         <v>1144</v>
       </c>
@@ -74628,7 +74670,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="821" spans="1:45">
+    <row r="821" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A821" s="3" t="s">
         <v>1144</v>
       </c>
@@ -74727,7 +74769,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="822" spans="1:45">
+    <row r="822" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A822" s="3" t="s">
         <v>1144</v>
       </c>
@@ -74826,7 +74868,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="823" spans="1:45">
+    <row r="823" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A823" s="3" t="s">
         <v>1144</v>
       </c>
@@ -74925,7 +74967,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="824" spans="1:45">
+    <row r="824" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A824" s="3" t="s">
         <v>1144</v>
       </c>
@@ -75024,7 +75066,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="825" spans="1:45">
+    <row r="825" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A825" s="3" t="s">
         <v>1144</v>
       </c>
@@ -75123,7 +75165,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="826" spans="1:45">
+    <row r="826" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A826" s="3" t="s">
         <v>1144</v>
       </c>
@@ -75225,7 +75267,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="827" spans="1:45">
+    <row r="827" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A827" s="3" t="s">
         <v>1144</v>
       </c>
@@ -75324,7 +75366,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="828" spans="1:45">
+    <row r="828" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A828" s="3" t="s">
         <v>1144</v>
       </c>
@@ -75428,7 +75470,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="829" spans="1:45">
+    <row r="829" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A829" s="3" t="s">
         <v>1144</v>
       </c>
@@ -75530,7 +75572,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="830" spans="1:45">
+    <row r="830" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A830" s="3" t="s">
         <v>1144</v>
       </c>
@@ -75632,7 +75674,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="831" spans="1:45">
+    <row r="831" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A831" s="3" t="s">
         <v>1144</v>
       </c>
@@ -75731,7 +75773,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="832" spans="1:45">
+    <row r="832" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A832" s="3" t="s">
         <v>1144</v>
       </c>
@@ -75830,7 +75872,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="833" spans="1:45">
+    <row r="833" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A833" s="3" t="s">
         <v>1144</v>
       </c>
@@ -75929,7 +75971,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="834" spans="1:45">
+    <row r="834" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A834" s="3" t="s">
         <v>1144</v>
       </c>
@@ -76028,7 +76070,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="835" spans="1:45">
+    <row r="835" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A835" s="3" t="s">
         <v>1144</v>
       </c>
@@ -76127,7 +76169,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="836" spans="1:45">
+    <row r="836" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A836" s="3" t="s">
         <v>1144</v>
       </c>
@@ -76229,7 +76271,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="837" spans="1:45">
+    <row r="837" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A837" s="3" t="s">
         <v>1144</v>
       </c>
@@ -76336,7 +76378,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="838" spans="1:45">
+    <row r="838" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A838" s="3" t="s">
         <v>1144</v>
       </c>
@@ -76435,7 +76477,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="839" spans="1:45">
+    <row r="839" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A839" s="3" t="s">
         <v>1144</v>
       </c>
@@ -76537,7 +76579,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="840" spans="1:45">
+    <row r="840" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A840" s="3" t="s">
         <v>1144</v>
       </c>
@@ -76639,7 +76681,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="841" spans="1:45">
+    <row r="841" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A841" s="3" t="s">
         <v>1144</v>
       </c>
@@ -76738,7 +76780,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="842" spans="1:45">
+    <row r="842" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A842" s="3" t="s">
         <v>1144</v>
       </c>
@@ -76840,7 +76882,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="843" spans="1:45">
+    <row r="843" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A843" s="3" t="s">
         <v>1145</v>
       </c>
@@ -76923,7 +76965,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="844" spans="1:45">
+    <row r="844" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A844" s="3" t="s">
         <v>1145</v>
       </c>
@@ -77006,7 +77048,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="845" spans="1:45">
+    <row r="845" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A845" s="3" t="s">
         <v>1145</v>
       </c>
@@ -77113,7 +77155,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="846" spans="1:45">
+    <row r="846" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A846" s="3" t="s">
         <v>1145</v>
       </c>
@@ -77193,7 +77235,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="847" spans="1:45">
+    <row r="847" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A847" s="3" t="s">
         <v>1144</v>
       </c>
@@ -77274,7 +77316,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="848" spans="1:45">
+    <row r="848" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A848" s="3" t="s">
         <v>1144</v>
       </c>
@@ -77363,7 +77405,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="849" spans="1:45">
+    <row r="849" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A849" s="3" t="s">
         <v>1144</v>
       </c>
@@ -77447,7 +77489,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="850" spans="1:45">
+    <row r="850" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A850" s="3" t="s">
         <v>1144</v>
       </c>
@@ -77531,7 +77573,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="851" spans="1:45">
+    <row r="851" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A851" s="3" t="s">
         <v>1144</v>
       </c>
@@ -77620,7 +77662,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="852" spans="1:45">
+    <row r="852" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A852" s="3" t="s">
         <v>1144</v>
       </c>
@@ -77704,7 +77746,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="853" spans="1:45">
+    <row r="853" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A853" s="3" t="s">
         <v>1144</v>
       </c>
@@ -77788,7 +77830,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="854" spans="1:45">
+    <row r="854" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A854" s="3" t="s">
         <v>1144</v>
       </c>
@@ -77890,7 +77932,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="855" spans="1:45">
+    <row r="855" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A855" s="3" t="s">
         <v>1144</v>
       </c>
@@ -77977,7 +78019,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="856" spans="1:45">
+    <row r="856" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A856" s="3" t="s">
         <v>1144</v>
       </c>
@@ -78061,7 +78103,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="857" spans="1:45">
+    <row r="857" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A857" s="3" t="s">
         <v>1144</v>
       </c>
@@ -78157,7 +78199,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="858" spans="1:45">
+    <row r="858" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A858" s="3" t="s">
         <v>1144</v>
       </c>
@@ -78241,7 +78283,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="859" spans="1:45">
+    <row r="859" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A859" s="3" t="s">
         <v>1144</v>
       </c>
@@ -78325,7 +78367,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="860" spans="1:45">
+    <row r="860" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A860" s="3" t="s">
         <v>1144</v>
       </c>
@@ -78424,7 +78466,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="861" spans="1:45">
+    <row r="861" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A861" s="3" t="s">
         <v>1144</v>
       </c>
@@ -78508,7 +78550,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="862" spans="1:45">
+    <row r="862" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A862" s="3" t="s">
         <v>1144</v>
       </c>
@@ -78592,7 +78634,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="863" spans="1:45">
+    <row r="863" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A863" s="3" t="s">
         <v>1144</v>
       </c>
@@ -78676,7 +78718,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="864" spans="1:45">
+    <row r="864" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A864" s="3" t="s">
         <v>1144</v>
       </c>
@@ -78760,7 +78802,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="865" spans="1:45">
+    <row r="865" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A865" s="3" t="s">
         <v>1144</v>
       </c>
@@ -78844,7 +78886,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="866" spans="1:45">
+    <row r="866" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A866" s="3" t="s">
         <v>1144</v>
       </c>
@@ -78928,7 +78970,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="867" spans="1:45">
+    <row r="867" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A867" s="3" t="s">
         <v>1144</v>
       </c>
@@ -79012,7 +79054,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="868" spans="1:45">
+    <row r="868" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A868" s="3" t="s">
         <v>1144</v>
       </c>
@@ -79093,7 +79135,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="869" spans="1:45">
+    <row r="869" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A869" s="3" t="s">
         <v>1144</v>
       </c>
@@ -79177,7 +79219,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="870" spans="1:45">
+    <row r="870" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A870" s="3" t="s">
         <v>1144</v>
       </c>
@@ -79261,7 +79303,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="871" spans="1:45">
+    <row r="871" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A871" s="3" t="s">
         <v>1144</v>
       </c>
@@ -79345,7 +79387,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="872" spans="1:45">
+    <row r="872" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A872" s="3" t="s">
         <v>1144</v>
       </c>
@@ -79441,7 +79483,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="873" spans="1:45">
+    <row r="873" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A873" s="3" t="s">
         <v>1144</v>
       </c>
@@ -79525,7 +79567,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="874" spans="1:45">
+    <row r="874" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A874" s="3" t="s">
         <v>1144</v>
       </c>
@@ -79627,7 +79669,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="875" spans="1:45">
+    <row r="875" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A875" s="3" t="s">
         <v>1144</v>
       </c>
@@ -79711,7 +79753,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="876" spans="1:45">
+    <row r="876" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A876" s="3" t="s">
         <v>1144</v>
       </c>
@@ -79795,7 +79837,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="877" spans="1:45">
+    <row r="877" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A877" s="3" t="s">
         <v>1144</v>
       </c>
@@ -79897,7 +79939,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="878" spans="1:45">
+    <row r="878" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A878" s="3" t="s">
         <v>1144</v>
       </c>
@@ -79981,7 +80023,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="879" spans="1:45">
+    <row r="879" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A879" s="3" t="s">
         <v>1144</v>
       </c>
@@ -80083,7 +80125,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="880" spans="1:45">
+    <row r="880" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A880" s="3" t="s">
         <v>1144</v>
       </c>
@@ -80182,7 +80224,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="881" spans="1:45">
+    <row r="881" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A881" s="3" t="s">
         <v>1144</v>
       </c>
@@ -80266,7 +80308,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="882" spans="1:45">
+    <row r="882" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A882" s="3" t="s">
         <v>1144</v>
       </c>
@@ -80362,7 +80404,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="883" spans="1:45">
+    <row r="883" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A883" s="3" t="s">
         <v>1144</v>
       </c>
@@ -80455,7 +80497,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="884" spans="1:45">
+    <row r="884" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A884" s="3" t="s">
         <v>1144</v>
       </c>
@@ -80557,7 +80599,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="885" spans="1:45">
+    <row r="885" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A885" s="3" t="s">
         <v>1144</v>
       </c>
@@ -80656,7 +80698,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="886" spans="1:45">
+    <row r="886" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A886" s="3" t="s">
         <v>1144</v>
       </c>
@@ -80755,7 +80797,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="887" spans="1:45">
+    <row r="887" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A887" s="3" t="s">
         <v>1144</v>
       </c>
@@ -80851,7 +80893,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="888" spans="1:45">
+    <row r="888" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A888" s="3" t="s">
         <v>1144</v>
       </c>
@@ -80950,7 +80992,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="889" spans="1:45">
+    <row r="889" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A889" s="3" t="s">
         <v>1144</v>
       </c>
@@ -81057,7 +81099,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="890" spans="1:45">
+    <row r="890" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A890" s="3" t="s">
         <v>1144</v>
       </c>
@@ -81158,7 +81200,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="891" spans="1:45">
+    <row r="891" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A891" s="3" t="s">
         <v>1144</v>
       </c>
@@ -81198,7 +81240,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="892" spans="1:45">
+    <row r="892" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A892" s="3" t="s">
         <v>1144</v>
       </c>
@@ -81297,7 +81339,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="893" spans="1:45">
+    <row r="893" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A893" s="3" t="s">
         <v>1145</v>
       </c>
@@ -81383,7 +81425,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="894" spans="1:45">
+    <row r="894" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A894" s="3" t="s">
         <v>1145</v>
       </c>
@@ -81463,7 +81505,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="895" spans="1:45">
+    <row r="895" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A895" s="3" t="s">
         <v>1145</v>
       </c>
@@ -81543,7 +81585,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="896" spans="1:45">
+    <row r="896" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A896" s="3" t="s">
         <v>1144</v>
       </c>
@@ -81627,7 +81669,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="897" spans="1:45">
+    <row r="897" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A897" s="3" t="s">
         <v>1144</v>
       </c>
@@ -81722,7 +81764,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="898" spans="1:45">
+    <row r="898" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A898" s="3" t="s">
         <v>1144</v>
       </c>
@@ -81811,7 +81853,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="899" spans="1:45">
+    <row r="899" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A899" s="3" t="s">
         <v>1144</v>
       </c>
@@ -81906,7 +81948,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="900" spans="1:45">
+    <row r="900" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A900" s="3" t="s">
         <v>1144</v>
       </c>
@@ -81990,7 +82032,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="901" spans="1:45">
+    <row r="901" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A901" s="3" t="s">
         <v>1144</v>
       </c>
@@ -82080,7 +82122,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="902" spans="1:45">
+    <row r="902" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A902" s="3" t="s">
         <v>1144</v>
       </c>
@@ -82170,7 +82212,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="903" spans="1:45">
+    <row r="903" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A903" s="3" t="s">
         <v>1144</v>
       </c>
@@ -82254,7 +82296,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="904" spans="1:45">
+    <row r="904" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A904" s="3" t="s">
         <v>1144</v>
       </c>
@@ -82289,7 +82331,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="905" spans="1:45">
+    <row r="905" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A905" s="3" t="s">
         <v>1144</v>
       </c>
@@ -82376,7 +82418,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="906" spans="1:45">
+    <row r="906" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A906" s="3" t="s">
         <v>1144</v>
       </c>
@@ -82481,7 +82523,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="907" spans="1:45">
+    <row r="907" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A907" s="3" t="s">
         <v>1144</v>
       </c>
@@ -82580,7 +82622,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="908" spans="1:45">
+    <row r="908" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A908" s="3" t="s">
         <v>1144</v>
       </c>
@@ -82679,7 +82721,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="909" spans="1:45">
+    <row r="909" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A909" s="3" t="s">
         <v>1144</v>
       </c>
@@ -82778,7 +82820,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="910" spans="1:45">
+    <row r="910" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A910" s="3" t="s">
         <v>1144</v>
       </c>
@@ -82868,7 +82910,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="911" spans="1:45">
+    <row r="911" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A911" s="3" t="s">
         <v>1144</v>
       </c>
@@ -82963,7 +83005,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="912" spans="1:45">
+    <row r="912" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A912" s="3" t="s">
         <v>1144</v>
       </c>
@@ -83058,7 +83100,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="913" spans="1:45">
+    <row r="913" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A913" s="3" t="s">
         <v>1144</v>
       </c>
@@ -83150,7 +83192,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="914" spans="1:45">
+    <row r="914" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A914" s="3" t="s">
         <v>1144</v>
       </c>
@@ -83240,7 +83282,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="915" spans="1:45">
+    <row r="915" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A915" s="3" t="s">
         <v>1144</v>
       </c>
@@ -83342,7 +83384,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="916" spans="1:45">
+    <row r="916" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A916" s="3" t="s">
         <v>1144</v>
       </c>
@@ -83444,7 +83486,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="917" spans="1:45">
+    <row r="917" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A917" s="3" t="s">
         <v>1144</v>
       </c>
@@ -83531,7 +83573,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="918" spans="1:45">
+    <row r="918" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A918" s="3" t="s">
         <v>1144</v>
       </c>
@@ -83618,7 +83660,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="919" spans="1:45">
+    <row r="919" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A919" s="3" t="s">
         <v>1144</v>
       </c>
@@ -83708,7 +83750,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="920" spans="1:45">
+    <row r="920" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A920" s="3" t="s">
         <v>1144</v>
       </c>
@@ -83807,7 +83849,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="921" spans="1:45">
+    <row r="921" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A921" s="3" t="s">
         <v>1145</v>
       </c>
@@ -83893,7 +83935,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="922" spans="1:45">
+    <row r="922" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A922" s="3" t="s">
         <v>1144</v>
       </c>
@@ -83988,7 +84030,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="923" spans="1:45">
+    <row r="923" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A923" s="3" t="s">
         <v>1144</v>
       </c>
@@ -84087,7 +84129,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="924" spans="1:45">
+    <row r="924" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A924" s="3" t="s">
         <v>1144</v>
       </c>
@@ -84174,7 +84216,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="925" spans="1:45">
+    <row r="925" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A925" s="3" t="s">
         <v>1144</v>
       </c>
@@ -84276,7 +84318,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="926" spans="1:45">
+    <row r="926" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A926" s="3" t="s">
         <v>1144</v>
       </c>
@@ -84365,7 +84407,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="927" spans="1:45">
+    <row r="927" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A927" s="3" t="s">
         <v>1144</v>
       </c>
@@ -84452,7 +84494,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="928" spans="1:45">
+    <row r="928" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A928" s="3" t="s">
         <v>1144</v>
       </c>
@@ -84542,7 +84584,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="929" spans="1:45">
+    <row r="929" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A929" s="3" t="s">
         <v>1144</v>
       </c>
@@ -84629,7 +84671,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="930" spans="1:45">
+    <row r="930" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A930" s="3" t="s">
         <v>1144</v>
       </c>
@@ -84716,7 +84758,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="931" spans="1:45">
+    <row r="931" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A931" s="3" t="s">
         <v>1144</v>
       </c>
@@ -84815,7 +84857,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="932" spans="1:45">
+    <row r="932" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A932" s="3" t="s">
         <v>1144</v>
       </c>
@@ -84902,7 +84944,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="933" spans="1:45">
+    <row r="933" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A933" s="3" t="s">
         <v>1144</v>
       </c>
@@ -84989,7 +85031,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="934" spans="1:45">
+    <row r="934" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A934" s="3" t="s">
         <v>1144</v>
       </c>
@@ -85079,7 +85121,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="935" spans="1:45">
+    <row r="935" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A935" s="3" t="s">
         <v>1144</v>
       </c>
@@ -85166,7 +85208,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="936" spans="1:45">
+    <row r="936" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A936" s="3" t="s">
         <v>1144</v>
       </c>
@@ -85253,7 +85295,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="937" spans="1:45">
+    <row r="937" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A937" s="3" t="s">
         <v>1144</v>
       </c>
@@ -85337,7 +85379,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="938" spans="1:45">
+    <row r="938" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A938" s="3" t="s">
         <v>1144</v>
       </c>
@@ -85424,7 +85466,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="939" spans="1:45">
+    <row r="939" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A939" s="3" t="s">
         <v>1144</v>
       </c>
@@ -85526,7 +85568,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="940" spans="1:45">
+    <row r="940" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A940" s="3" t="s">
         <v>1144</v>
       </c>
@@ -85610,7 +85652,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="941" spans="1:45">
+    <row r="941" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A941" s="3" t="s">
         <v>1144</v>
       </c>
@@ -85694,7 +85736,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="942" spans="1:45">
+    <row r="942" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A942" s="3" t="s">
         <v>1144</v>
       </c>
@@ -85793,7 +85835,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="943" spans="1:45">
+    <row r="943" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A943" s="3" t="s">
         <v>1144</v>
       </c>
@@ -85895,7 +85937,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="944" spans="1:45">
+    <row r="944" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A944" s="3" t="s">
         <v>1144</v>
       </c>
@@ -85994,7 +86036,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="945" spans="1:45">
+    <row r="945" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A945" s="3" t="s">
         <v>1144</v>
       </c>
@@ -86093,7 +86135,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="946" spans="1:45">
+    <row r="946" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A946" s="3" t="s">
         <v>1144</v>
       </c>
@@ -86188,7 +86230,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="947" spans="1:45">
+    <row r="947" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A947" s="3" t="s">
         <v>1144</v>
       </c>
@@ -86285,7 +86327,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="948" spans="1:45">
+    <row r="948" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A948" s="3" t="s">
         <v>1144</v>
       </c>
@@ -86389,7 +86431,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="949" spans="1:45">
+    <row r="949" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A949" s="3" t="s">
         <v>1144</v>
       </c>
@@ -86473,7 +86515,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="950" spans="1:45">
+    <row r="950" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A950" s="3" t="s">
         <v>1144</v>
       </c>
@@ -86565,7 +86607,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="951" spans="1:45">
+    <row r="951" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A951" s="3" t="s">
         <v>1144</v>
       </c>
@@ -86664,7 +86706,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="952" spans="1:45">
+    <row r="952" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A952" s="3" t="s">
         <v>1144</v>
       </c>
@@ -86763,7 +86805,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="953" spans="1:45">
+    <row r="953" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A953" s="3" t="s">
         <v>1144</v>
       </c>
@@ -86865,7 +86907,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="954" spans="1:45">
+    <row r="954" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A954" s="3" t="s">
         <v>1144</v>
       </c>
@@ -86952,7 +86994,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="955" spans="1:45">
+    <row r="955" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A955" s="3" t="s">
         <v>1144</v>
       </c>
@@ -87054,7 +87096,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="956" spans="1:45">
+    <row r="956" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A956" s="3" t="s">
         <v>1144</v>
       </c>
@@ -87094,7 +87136,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="957" spans="1:45">
+    <row r="957" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A957" s="3" t="s">
         <v>1144</v>
       </c>
@@ -87193,7 +87235,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="958" spans="1:45">
+    <row r="958" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A958" s="3" t="s">
         <v>1144</v>
       </c>
@@ -87295,7 +87337,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="959" spans="1:45">
+    <row r="959" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A959" s="3" t="s">
         <v>1144</v>
       </c>
@@ -87382,7 +87424,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="960" spans="1:45">
+    <row r="960" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A960" s="3" t="s">
         <v>1144</v>
       </c>
@@ -87484,7 +87526,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="961" spans="1:45">
+    <row r="961" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A961" s="3" t="s">
         <v>1144</v>
       </c>
@@ -87586,7 +87628,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="962" spans="1:45">
+    <row r="962" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A962" s="3" t="s">
         <v>1144</v>
       </c>
@@ -87688,7 +87730,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="963" spans="1:45">
+    <row r="963" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A963" s="3" t="s">
         <v>1144</v>
       </c>
@@ -87787,7 +87829,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="964" spans="1:45">
+    <row r="964" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A964" s="3" t="s">
         <v>1144</v>
       </c>
@@ -87894,7 +87936,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="965" spans="1:45">
+    <row r="965" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A965" s="3" t="s">
         <v>1144</v>
       </c>
@@ -87996,7 +88038,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="966" spans="1:45">
+    <row r="966" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A966" s="3" t="s">
         <v>1144</v>
       </c>
@@ -88098,7 +88140,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="967" spans="1:45">
+    <row r="967" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A967" s="3" t="s">
         <v>1144</v>
       </c>
@@ -88206,7 +88248,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="968" spans="1:45">
+    <row r="968" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A968" s="3" t="s">
         <v>1144</v>
       </c>
@@ -88316,7 +88358,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="969" spans="1:45">
+    <row r="969" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A969" s="3" t="s">
         <v>1144</v>
       </c>
@@ -88418,7 +88460,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="970" spans="1:45">
+    <row r="970" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A970" s="3" t="s">
         <v>1144</v>
       </c>
@@ -88525,7 +88567,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="971" spans="1:45">
+    <row r="971" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A971" s="3" t="s">
         <v>1144</v>
       </c>
@@ -88627,7 +88669,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="972" spans="1:45">
+    <row r="972" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A972" s="3" t="s">
         <v>1144</v>
       </c>
@@ -88729,7 +88771,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="973" spans="1:45">
+    <row r="973" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A973" s="3" t="s">
         <v>1144</v>
       </c>
@@ -88831,7 +88873,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="974" spans="1:45">
+    <row r="974" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A974" s="3" t="s">
         <v>1144</v>
       </c>
@@ -88938,7 +88980,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="975" spans="1:45">
+    <row r="975" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A975" s="3" t="s">
         <v>1144</v>
       </c>
@@ -89040,7 +89082,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="976" spans="1:45">
+    <row r="976" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A976" s="3" t="s">
         <v>1144</v>
       </c>
@@ -89136,7 +89178,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="977" spans="1:45">
+    <row r="977" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A977" s="3" t="s">
         <v>1144</v>
       </c>
@@ -89238,7 +89280,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="978" spans="1:45">
+    <row r="978" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A978" s="3" t="s">
         <v>1144</v>
       </c>
@@ -89340,7 +89382,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="979" spans="1:45">
+    <row r="979" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A979" s="3" t="s">
         <v>1144</v>
       </c>
@@ -89442,7 +89484,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="980" spans="1:45">
+    <row r="980" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A980" s="3" t="s">
         <v>1144</v>
       </c>
@@ -89544,7 +89586,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="981" spans="1:45">
+    <row r="981" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A981" s="3" t="s">
         <v>1144</v>
       </c>
@@ -89646,7 +89688,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="982" spans="1:45">
+    <row r="982" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A982" s="3" t="s">
         <v>1144</v>
       </c>
@@ -89748,7 +89790,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="983" spans="1:45">
+    <row r="983" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A983" s="3" t="s">
         <v>1144</v>
       </c>
@@ -89847,7 +89889,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="984" spans="1:45">
+    <row r="984" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A984" s="3" t="s">
         <v>1144</v>
       </c>
@@ -89949,7 +89991,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="985" spans="1:45">
+    <row r="985" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A985" s="3" t="s">
         <v>1144</v>
       </c>
@@ -90051,7 +90093,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="986" spans="1:45">
+    <row r="986" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A986" s="3" t="s">
         <v>1144</v>
       </c>
@@ -90158,7 +90200,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="987" spans="1:45">
+    <row r="987" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A987" s="3" t="s">
         <v>1144</v>
       </c>
@@ -90260,7 +90302,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="988" spans="1:45">
+    <row r="988" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A988" s="3" t="s">
         <v>1144</v>
       </c>
@@ -90362,7 +90404,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="989" spans="1:45">
+    <row r="989" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A989" s="3" t="s">
         <v>1144</v>
       </c>
@@ -90464,7 +90506,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="990" spans="1:45">
+    <row r="990" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A990" s="3" t="s">
         <v>1144</v>
       </c>
@@ -90566,7 +90608,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="991" spans="1:45">
+    <row r="991" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A991" s="3" t="s">
         <v>1144</v>
       </c>
@@ -90665,7 +90707,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="992" spans="1:45">
+    <row r="992" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A992" s="3" t="s">
         <v>1144</v>
       </c>
@@ -90767,7 +90809,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="993" spans="1:45">
+    <row r="993" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A993" s="3" t="s">
         <v>1144</v>
       </c>
@@ -90869,7 +90911,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="994" spans="1:45">
+    <row r="994" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A994" s="3" t="s">
         <v>1144</v>
       </c>
@@ -90965,7 +91007,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="995" spans="1:45">
+    <row r="995" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A995" s="3" t="s">
         <v>1144</v>
       </c>
@@ -91061,7 +91103,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="996" spans="1:45">
+    <row r="996" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A996" s="3" t="s">
         <v>1144</v>
       </c>
@@ -91145,7 +91187,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="997" spans="1:45">
+    <row r="997" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A997" s="3" t="s">
         <v>1144</v>
       </c>
@@ -91229,7 +91271,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="998" spans="1:45">
+    <row r="998" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A998" s="3" t="s">
         <v>1144</v>
       </c>
@@ -91333,7 +91375,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="999" spans="1:45">
+    <row r="999" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A999" s="3" t="s">
         <v>1144</v>
       </c>
@@ -91373,7 +91415,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1000" spans="1:45">
+    <row r="1000" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1000" s="3" t="s">
         <v>1144</v>
       </c>
@@ -91472,7 +91514,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1001" spans="1:45">
+    <row r="1001" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1001" s="3" t="s">
         <v>1144</v>
       </c>
@@ -91571,7 +91613,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1002" spans="1:45">
+    <row r="1002" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1002" s="3" t="s">
         <v>1144</v>
       </c>
@@ -91678,7 +91720,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1003" spans="1:45">
+    <row r="1003" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1003" s="3" t="s">
         <v>1144</v>
       </c>
@@ -91777,7 +91819,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1004" spans="1:45">
+    <row r="1004" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1004" s="3" t="s">
         <v>1144</v>
       </c>
@@ -91879,7 +91921,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1005" spans="1:45">
+    <row r="1005" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1005" s="3" t="s">
         <v>1144</v>
       </c>
@@ -91966,7 +92008,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1006" spans="1:45">
+    <row r="1006" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1006" s="3" t="s">
         <v>1144</v>
       </c>
@@ -92056,7 +92098,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1007" spans="1:45">
+    <row r="1007" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1007" s="3" t="s">
         <v>1144</v>
       </c>
@@ -92158,7 +92200,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1008" spans="1:45">
+    <row r="1008" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1008" s="3" t="s">
         <v>1144</v>
       </c>
@@ -92248,7 +92290,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="1009" spans="1:45">
+    <row r="1009" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1009" s="3" t="s">
         <v>1144</v>
       </c>
@@ -92347,7 +92389,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1010" spans="1:45">
+    <row r="1010" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1010" s="3" t="s">
         <v>1144</v>
       </c>
@@ -92446,7 +92488,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1011" spans="1:45">
+    <row r="1011" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1011" s="3" t="s">
         <v>1144</v>
       </c>
@@ -92545,7 +92587,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1012" spans="1:45">
+    <row r="1012" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1012" s="3" t="s">
         <v>1144</v>
       </c>
@@ -92641,7 +92683,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="1013" spans="1:45">
+    <row r="1013" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1013" s="3" t="s">
         <v>1144</v>
       </c>
@@ -92748,7 +92790,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1014" spans="1:45">
+    <row r="1014" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1014" s="3" t="s">
         <v>1144</v>
       </c>
@@ -92855,7 +92897,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1015" spans="1:45">
+    <row r="1015" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1015" s="3" t="s">
         <v>1144</v>
       </c>
@@ -92962,7 +93004,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="1016" spans="1:45">
+    <row r="1016" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1016" s="3" t="s">
         <v>1144</v>
       </c>
@@ -93049,7 +93091,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1017" spans="1:45">
+    <row r="1017" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1017" s="3" t="s">
         <v>1144</v>
       </c>
@@ -93151,7 +93193,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1018" spans="1:45">
+    <row r="1018" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1018" s="3" t="s">
         <v>1144</v>
       </c>
@@ -93253,7 +93295,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1019" spans="1:45">
+    <row r="1019" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1019" s="3" t="s">
         <v>1144</v>
       </c>
@@ -93293,7 +93335,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1020" spans="1:45">
+    <row r="1020" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1020" s="3" t="s">
         <v>1144</v>
       </c>
@@ -93403,7 +93445,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1021" spans="1:45">
+    <row r="1021" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1021" s="3" t="s">
         <v>1144</v>
       </c>
@@ -93507,7 +93549,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1022" spans="1:45">
+    <row r="1022" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1022" s="3" t="s">
         <v>1144</v>
       </c>
@@ -93609,7 +93651,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1023" spans="1:45">
+    <row r="1023" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1023" s="3" t="s">
         <v>1144</v>
       </c>
@@ -93708,7 +93750,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1024" spans="1:45">
+    <row r="1024" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1024" s="3" t="s">
         <v>1144</v>
       </c>
@@ -93777,7 +93819,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="1025" spans="1:45">
+    <row r="1025" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1025" s="3" t="s">
         <v>1144</v>
       </c>
@@ -93884,7 +93926,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1026" spans="1:45">
+    <row r="1026" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1026" s="3" t="s">
         <v>1144</v>
       </c>
@@ -93991,7 +94033,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1027" spans="1:45">
+    <row r="1027" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1027" s="3" t="s">
         <v>1144</v>
       </c>
@@ -94078,7 +94120,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1028" spans="1:45">
+    <row r="1028" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1028" s="3" t="s">
         <v>1144</v>
       </c>
@@ -94180,7 +94222,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1029" spans="1:45">
+    <row r="1029" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1029" s="3" t="s">
         <v>1144</v>
       </c>
@@ -94276,7 +94318,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1030" spans="1:45">
+    <row r="1030" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1030" s="3" t="s">
         <v>1144</v>
       </c>
@@ -94383,7 +94425,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1031" spans="1:45">
+    <row r="1031" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1031" s="3" t="s">
         <v>1144</v>
       </c>
@@ -94482,7 +94524,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="1032" spans="1:45">
+    <row r="1032" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1032" s="3" t="s">
         <v>1144</v>
       </c>
@@ -94584,7 +94626,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="1033" spans="1:45">
+    <row r="1033" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1033" s="3" t="s">
         <v>1144</v>
       </c>
@@ -94674,7 +94716,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1034" spans="1:45">
+    <row r="1034" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1034" s="3" t="s">
         <v>1144</v>
       </c>
@@ -94776,7 +94818,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1035" spans="1:45">
+    <row r="1035" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1035" s="3" t="s">
         <v>1144</v>
       </c>
@@ -94878,7 +94920,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1036" spans="1:45">
+    <row r="1036" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1036" s="3" t="s">
         <v>1144</v>
       </c>
@@ -94980,7 +95022,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1037" spans="1:45">
+    <row r="1037" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1037" s="3" t="s">
         <v>1144</v>
       </c>
@@ -95082,7 +95124,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1038" spans="1:45">
+    <row r="1038" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1038" s="3" t="s">
         <v>1144</v>
       </c>
@@ -95172,7 +95214,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1039" spans="1:45">
+    <row r="1039" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1039" s="3" t="s">
         <v>1144</v>
       </c>
@@ -95271,7 +95313,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1040" spans="1:45">
+    <row r="1040" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1040" s="3" t="s">
         <v>1144</v>
       </c>
@@ -95370,7 +95412,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="1041" spans="1:45">
+    <row r="1041" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1041" s="3" t="s">
         <v>1144</v>
       </c>
@@ -95460,7 +95502,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1042" spans="1:45">
+    <row r="1042" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1042" s="3" t="s">
         <v>1144</v>
       </c>
@@ -95547,7 +95589,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="1043" spans="1:45">
+    <row r="1043" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1043" s="3" t="s">
         <v>1144</v>
       </c>
@@ -95649,7 +95691,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="1044" spans="1:45">
+    <row r="1044" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1044" s="6" t="s">
         <v>1144</v>
       </c>
@@ -95735,7 +95777,7 @@
       <c r="AQ1044" s="3"/>
       <c r="AR1044" s="3"/>
     </row>
-    <row r="1045" spans="1:45">
+    <row r="1045" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1045" s="3" t="s">
         <v>1144</v>
       </c>
@@ -95821,7 +95863,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="1046" spans="1:45">
+    <row r="1046" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1046" s="6" t="s">
         <v>1144</v>
       </c>
@@ -95902,7 +95944,7 @@
       <c r="AQ1046" s="3"/>
       <c r="AR1046" s="3"/>
     </row>
-    <row r="1047" spans="1:45">
+    <row r="1047" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1047" s="6" t="s">
         <v>1144</v>
       </c>
@@ -95983,7 +96025,7 @@
       <c r="AQ1047" s="3"/>
       <c r="AR1047" s="3"/>
     </row>
-    <row r="1048" spans="1:45">
+    <row r="1048" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1048" s="3" t="s">
         <v>1144</v>
       </c>
@@ -96037,7 +96079,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="1049" spans="1:45">
+    <row r="1049" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1049" s="6" t="s">
         <v>1144</v>
       </c>
@@ -96122,7 +96164,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="1050" spans="1:45">
+    <row r="1050" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1050" s="6" t="s">
         <v>1144</v>
       </c>
@@ -96202,7 +96244,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="1051" spans="1:45">
+    <row r="1051" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1051" s="6" t="s">
         <v>1144</v>
       </c>
@@ -96299,7 +96341,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="1052" spans="1:45">
+    <row r="1052" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1052" s="6" t="s">
         <v>1144</v>
       </c>
@@ -96380,7 +96422,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="1053" spans="1:45">
+    <row r="1053" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1053" s="3" t="s">
         <v>1145</v>
       </c>
@@ -96454,7 +96496,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="1054" spans="1:45">
+    <row r="1054" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1054" s="3" t="s">
         <v>1145</v>
       </c>
@@ -96525,7 +96567,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="1055" spans="1:45">
+    <row r="1055" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1055" s="6" t="s">
         <v>1144</v>
       </c>
@@ -96608,7 +96650,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="1056" spans="1:45">
+    <row r="1056" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1056" s="3" t="s">
         <v>1144</v>
       </c>
@@ -96663,7 +96705,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AS952">
+  <autoFilter ref="A1:AS952" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A2:AS1056">
       <sortCondition ref="H1:H952"/>
     </sortState>
